--- a/teaching/traditional_assets/database/data/turkey/turkey_aerospace_defense.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_aerospace_defense.xlsx
@@ -650,10 +650,10 @@
         <v>0.2667738427348811</v>
       </c>
       <c r="X2">
-        <v>0.1173868557218668</v>
+        <v>0.1159822598892387</v>
       </c>
       <c r="Y2">
-        <v>0.1493869870130143</v>
+        <v>0.1507915828456424</v>
       </c>
       <c r="Z2">
         <v>0.8166278166278166</v>
@@ -662,10 +662,10 @@
         <v>0.1601769800757866</v>
       </c>
       <c r="AB2">
-        <v>0.1132147900907591</v>
+        <v>0.1115527808325935</v>
       </c>
       <c r="AC2">
-        <v>0.04696218998502746</v>
+        <v>0.04862419924319314</v>
       </c>
       <c r="AD2">
         <v>423.2</v>
@@ -784,10 +784,10 @@
         <v>0.2667738427348811</v>
       </c>
       <c r="X3">
-        <v>0.1173868557218668</v>
+        <v>0.1159822598892387</v>
       </c>
       <c r="Y3">
-        <v>0.1493869870130143</v>
+        <v>0.1507915828456424</v>
       </c>
       <c r="Z3">
         <v>0.8166278166278166</v>
@@ -796,10 +796,10 @@
         <v>0.1601769800757866</v>
       </c>
       <c r="AB3">
-        <v>0.1132147900907591</v>
+        <v>0.1115527808325935</v>
       </c>
       <c r="AC3">
-        <v>0.04696218998502746</v>
+        <v>0.04862419924319314</v>
       </c>
       <c r="AD3">
         <v>423.2</v>
@@ -1099,37 +1099,37 @@
         <v>0.07022784221967771</v>
       </c>
       <c r="F2">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="G2">
         <v>5602.9</v>
       </c>
       <c r="H2">
-        <v>2525.6465350576</v>
+        <v>1416.02209067886</v>
       </c>
       <c r="I2">
         <v>5774.5</v>
       </c>
       <c r="J2">
-        <v>6552.5775350576</v>
+        <v>6708.43409067886</v>
       </c>
       <c r="K2">
         <v>423.2</v>
       </c>
       <c r="L2">
-        <v>4278.531</v>
+        <v>5544.012</v>
       </c>
       <c r="M2">
-        <v>0.113214790090759</v>
+        <v>0.111552780832593</v>
       </c>
       <c r="N2">
-        <v>0.101647394001747</v>
+        <v>0.09731736365543681</v>
       </c>
       <c r="O2">
-        <v>0.057979283180236</v>
+        <v>0.052909283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.117386855721867</v>
+        <v>0.115982259889239</v>
       </c>
       <c r="T2">
-        <v>0.294937289661198</v>
+        <v>1.01374504569296</v>
       </c>
       <c r="U2">
         <v>1.06154253486914</v>
       </c>
       <c r="V2">
-        <v>2.91687447099188</v>
+        <v>9.99473709170281</v>
       </c>
       <c r="W2">
-        <v>3.026378354684686</v>
+        <v>3.007310657278775</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>5602.9</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.07433241433363595</v>
+        <v>0.06783241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.111734835271092</v>
+        <v>0.1100467448037072</v>
       </c>
       <c r="C2">
-        <v>6115.181292337853</v>
+        <v>6112.421449549046</v>
       </c>
       <c r="D2">
-        <v>5863.581292337853</v>
+        <v>5860.821449549046</v>
       </c>
       <c r="E2">
         <v>-423.2</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.111734835271092</v>
+        <v>0.1100467448037072</v>
       </c>
       <c r="T2">
         <v>1.002481152628165</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1115428386334956</v>
+        <v>0.109858461965139</v>
       </c>
       <c r="C3">
-        <v>6066.678747679996</v>
+        <v>6063.13408694661</v>
       </c>
       <c r="D3">
-        <v>5875.339747679996</v>
+        <v>5871.79508694661</v>
       </c>
       <c r="E3">
         <v>-362.939</v>
@@ -1482,37 +1482,37 @@
         <v>376.8</v>
       </c>
       <c r="M3">
-        <v>1.3679247</v>
+        <v>0.9762281999999999</v>
       </c>
       <c r="N3">
-        <v>375.4320753</v>
+        <v>375.8237718</v>
       </c>
       <c r="O3">
-        <v>82.595056566</v>
+        <v>82.68122979600001</v>
       </c>
       <c r="P3">
-        <v>292.837018734</v>
+        <v>293.142542004</v>
       </c>
       <c r="Q3">
-        <v>330.037018734</v>
+        <v>330.342542004</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1124906854883794</v>
+        <v>0.1108405070354939</v>
       </c>
       <c r="T3">
         <v>1.010379488982205</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>275.4537585292524</v>
+        <v>385.975328309508</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1113508419958992</v>
+        <v>0.1096701791265708</v>
       </c>
       <c r="C4">
-        <v>6018.223457108906</v>
+        <v>6013.887894891377</v>
       </c>
       <c r="D4">
-        <v>5887.145457108905</v>
+        <v>5882.809894891377</v>
       </c>
       <c r="E4">
         <v>-302.678</v>
@@ -1564,37 +1564,37 @@
         <v>376.8</v>
       </c>
       <c r="M4">
-        <v>2.7358494</v>
+        <v>1.9524564</v>
       </c>
       <c r="N4">
-        <v>374.0641506</v>
+        <v>374.8475436</v>
       </c>
       <c r="O4">
-        <v>82.29411313200001</v>
+        <v>82.46645959199999</v>
       </c>
       <c r="P4">
-        <v>291.770037468</v>
+        <v>292.381084008</v>
       </c>
       <c r="Q4">
-        <v>328.970037468</v>
+        <v>329.581084008</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1132619612203053</v>
+        <v>0.1116504684965009</v>
       </c>
       <c r="T4">
         <v>1.018439015874082</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>137.7268792646262</v>
+        <v>192.987664154754</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1111588453583028</v>
+        <v>0.1094818962880027</v>
       </c>
       <c r="C5">
-        <v>5969.815706050403</v>
+        <v>5964.683105512333</v>
       </c>
       <c r="D5">
-        <v>5898.998706050403</v>
+        <v>5893.866105512333</v>
       </c>
       <c r="E5">
         <v>-242.417</v>
@@ -1646,37 +1646,37 @@
         <v>376.8</v>
       </c>
       <c r="M5">
-        <v>4.1037741</v>
+        <v>2.9286846</v>
       </c>
       <c r="N5">
-        <v>372.6962259</v>
+        <v>373.8713154</v>
       </c>
       <c r="O5">
-        <v>81.993169698</v>
+        <v>82.251689388</v>
       </c>
       <c r="P5">
-        <v>290.703056202</v>
+        <v>291.619626012</v>
       </c>
       <c r="Q5">
-        <v>327.903056202</v>
+        <v>328.819626012</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.114049139544642</v>
+        <v>0.1124771301938172</v>
       </c>
       <c r="T5">
         <v>1.026664718578164</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>91.81791950975079</v>
+        <v>128.658442769836</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1109668487207064</v>
+        <v>0.1092936134494345</v>
       </c>
       <c r="C6">
-        <v>5921.455782233677</v>
+        <v>5915.51995268682</v>
       </c>
       <c r="D6">
-        <v>5910.899782233677</v>
+        <v>5904.96395268682</v>
       </c>
       <c r="E6">
         <v>-182.156</v>
@@ -1728,37 +1728,37 @@
         <v>376.8</v>
       </c>
       <c r="M6">
-        <v>5.4716988</v>
+        <v>3.9049128</v>
       </c>
       <c r="N6">
-        <v>371.3283012</v>
+        <v>372.8950872</v>
       </c>
       <c r="O6">
-        <v>81.692226264</v>
+        <v>82.03691918400001</v>
       </c>
       <c r="P6">
-        <v>289.636074936</v>
+        <v>290.858168016</v>
       </c>
       <c r="Q6">
-        <v>326.836074936</v>
+        <v>328.058168016</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1148527174174025</v>
+        <v>0.1133210140098277</v>
       </c>
       <c r="T6">
         <v>1.03506179008858</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>68.8634396323131</v>
+        <v>96.49383207737701</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.11077485208311</v>
+        <v>0.1091053306108664</v>
       </c>
       <c r="C7">
-        <v>5873.143975714546</v>
+        <v>5866.398672057013</v>
       </c>
       <c r="D7">
-        <v>5922.848975714546</v>
+        <v>5916.103672057013</v>
       </c>
       <c r="E7">
         <v>-121.895</v>
@@ -1810,37 +1810,37 @@
         <v>376.8</v>
       </c>
       <c r="M7">
-        <v>6.839623500000001</v>
+        <v>4.881141</v>
       </c>
       <c r="N7">
-        <v>369.9603765</v>
+        <v>371.918859</v>
       </c>
       <c r="O7">
-        <v>81.39128282999999</v>
+        <v>81.82214897999999</v>
       </c>
       <c r="P7">
-        <v>288.56909367</v>
+        <v>290.09671002</v>
       </c>
       <c r="Q7">
-        <v>325.76909367</v>
+        <v>327.29671002</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1156732127190631</v>
+        <v>0.114182663800912</v>
       </c>
       <c r="T7">
         <v>1.043635642051847</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>55.09075170585047</v>
+        <v>77.19506566190159</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1105828554455136</v>
+        <v>0.1089170477722982</v>
       </c>
       <c r="C8">
-        <v>5824.880578899041</v>
+        <v>5817.319501046611</v>
       </c>
       <c r="D8">
-        <v>5934.846578899041</v>
+        <v>5927.28550104661</v>
       </c>
       <c r="E8">
         <v>-61.63400000000001</v>
@@ -1892,37 +1892,37 @@
         <v>376.8</v>
       </c>
       <c r="M8">
-        <v>8.2075482</v>
+        <v>5.857369199999999</v>
       </c>
       <c r="N8">
-        <v>368.5924518</v>
+        <v>370.9426308</v>
       </c>
       <c r="O8">
-        <v>81.090339396</v>
+        <v>81.607378776</v>
       </c>
       <c r="P8">
-        <v>287.502112404</v>
+        <v>289.335252024</v>
       </c>
       <c r="Q8">
-        <v>324.702112404</v>
+        <v>326.535252024</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1165111653675676</v>
+        <v>0.1150626465662747</v>
       </c>
       <c r="T8">
         <v>1.052391916397312</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>45.9089597548754</v>
+        <v>64.32922138491801</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1103908588079172</v>
+        <v>0.1087287649337301</v>
       </c>
       <c r="C9">
-        <v>5776.665886567238</v>
+        <v>5768.282678877691</v>
       </c>
       <c r="D9">
-        <v>5946.892886567238</v>
+        <v>5938.509678877691</v>
       </c>
       <c r="E9">
         <v>-1.37299999999999</v>
@@ -1974,37 +1974,37 @@
         <v>376.8</v>
       </c>
       <c r="M9">
-        <v>9.575472900000001</v>
+        <v>6.833597399999999</v>
       </c>
       <c r="N9">
-        <v>367.2245271</v>
+        <v>369.9664026</v>
       </c>
       <c r="O9">
-        <v>80.789395962</v>
+        <v>81.39260857200001</v>
       </c>
       <c r="P9">
-        <v>286.435131138</v>
+        <v>288.573794028</v>
       </c>
       <c r="Q9">
-        <v>323.635131138</v>
+        <v>325.773794028</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1173671385031367</v>
+        <v>0.1159615536921829</v>
       </c>
       <c r="T9">
         <v>1.061336497717947</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>39.35053693275033</v>
+        <v>55.139332615644</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1101988621703208</v>
+        <v>0.1085404820951619</v>
       </c>
       <c r="C10">
-        <v>5728.500195897415</v>
+        <v>5719.288446587781</v>
       </c>
       <c r="D10">
-        <v>5958.988195897415</v>
+        <v>5949.77644658778</v>
       </c>
       <c r="E10">
         <v>58.88799999999998</v>
@@ -2056,37 +2056,37 @@
         <v>376.8</v>
       </c>
       <c r="M10">
-        <v>10.9433976</v>
+        <v>7.809825599999999</v>
       </c>
       <c r="N10">
-        <v>365.8566024</v>
+        <v>368.9901744</v>
       </c>
       <c r="O10">
-        <v>80.488452528</v>
+        <v>81.177838368</v>
       </c>
       <c r="P10">
-        <v>285.368149872</v>
+        <v>287.812336032</v>
       </c>
       <c r="Q10">
-        <v>322.568149872</v>
+        <v>325.012336032</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1182417197503487</v>
+        <v>0.1168800022773499</v>
       </c>
       <c r="T10">
         <v>1.070475526458597</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>34.43171981615655</v>
+        <v>48.2469160386885</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1100068655327244</v>
+        <v>0.1083521992565938</v>
       </c>
       <c r="C11">
-        <v>5680.383806490488</v>
+        <v>5670.337047047106</v>
       </c>
       <c r="D11">
-        <v>5971.132806490487</v>
+        <v>5961.086047047106</v>
       </c>
       <c r="E11">
         <v>119.1489999999999</v>
@@ -2138,37 +2138,37 @@
         <v>376.8</v>
       </c>
       <c r="M11">
-        <v>12.3113223</v>
+        <v>8.786053799999998</v>
       </c>
       <c r="N11">
-        <v>364.4886777</v>
+        <v>368.0139462</v>
       </c>
       <c r="O11">
-        <v>80.18750909400001</v>
+        <v>80.96306816400001</v>
       </c>
       <c r="P11">
-        <v>284.301168606</v>
+        <v>287.050878036</v>
       </c>
       <c r="Q11">
-        <v>321.501168606</v>
+        <v>324.250878036</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1191355225634334</v>
+        <v>0.1178186365457074</v>
       </c>
       <c r="T11">
         <v>1.079815412973766</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>30.60597316991694</v>
+        <v>42.88614758994535</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.109814868895128</v>
+        <v>0.1081639164180256</v>
       </c>
       <c r="C12">
-        <v>5632.317020394745</v>
+        <v>5621.428724976041</v>
       </c>
       <c r="D12">
-        <v>5983.327020394744</v>
+        <v>5972.43872497604</v>
       </c>
       <c r="E12">
         <v>179.41</v>
@@ -2220,37 +2220,37 @@
         <v>376.8</v>
       </c>
       <c r="M12">
-        <v>13.679247</v>
+        <v>9.762281999999999</v>
       </c>
       <c r="N12">
-        <v>363.120753</v>
+        <v>367.037718</v>
       </c>
       <c r="O12">
-        <v>79.88656566</v>
+        <v>80.74829796000002</v>
       </c>
       <c r="P12">
-        <v>283.2341873400001</v>
+        <v>286.28942004</v>
       </c>
       <c r="Q12">
-        <v>320.4341873400001</v>
+        <v>323.48942004</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1200491876612533</v>
+        <v>0.1187781293533618</v>
       </c>
       <c r="T12">
         <v>1.089362852522606</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>27.54537585292524</v>
+        <v>38.5975328309508</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1096228722575316</v>
+        <v>0.1079756335794575</v>
       </c>
       <c r="C13">
-        <v>5584.300142130883</v>
+        <v>5572.563726962766</v>
       </c>
       <c r="D13">
-        <v>5995.571142130882</v>
+        <v>5983.834726962766</v>
       </c>
       <c r="E13">
         <v>239.671</v>
@@ -2302,37 +2302,37 @@
         <v>376.8</v>
       </c>
       <c r="M13">
-        <v>15.0471717</v>
+        <v>10.7385102</v>
       </c>
       <c r="N13">
-        <v>361.7528283</v>
+        <v>366.0614898</v>
       </c>
       <c r="O13">
-        <v>79.58562222600001</v>
+        <v>80.533527756</v>
       </c>
       <c r="P13">
-        <v>282.167206074</v>
+        <v>285.527962044</v>
       </c>
       <c r="Q13">
-        <v>319.367206074</v>
+        <v>322.727962044</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1209833845590242</v>
+        <v>0.1197591837971432</v>
       </c>
       <c r="T13">
         <v>1.09912484127479</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>25.04125077538658</v>
+        <v>35.08866620995527</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1094308756199352</v>
+        <v>0.1077873507408893</v>
       </c>
       <c r="C14">
-        <v>5536.333478717373</v>
+        <v>5523.742301481117</v>
       </c>
       <c r="D14">
-        <v>6007.865478717372</v>
+        <v>5995.274301481116</v>
       </c>
       <c r="E14">
         <v>299.932</v>
@@ -2384,37 +2384,37 @@
         <v>376.8</v>
       </c>
       <c r="M14">
-        <v>16.4150964</v>
+        <v>11.7147384</v>
       </c>
       <c r="N14">
-        <v>360.3849036</v>
+        <v>365.0852616</v>
       </c>
       <c r="O14">
-        <v>79.28467879200001</v>
+        <v>80.31875755200001</v>
       </c>
       <c r="P14">
-        <v>281.100224808</v>
+        <v>284.766504048</v>
       </c>
       <c r="Q14">
-        <v>318.300224808</v>
+        <v>321.966504048</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1219388132044718</v>
+        <v>0.1207625349328288</v>
       </c>
       <c r="T14">
         <v>1.109108693407706</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>22.9544798774377</v>
+        <v>32.16461069245901</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1092388789823388</v>
+        <v>0.1075990679023212</v>
       </c>
       <c r="C15">
-        <v>5488.417339696102</v>
+        <v>5474.96469890864</v>
       </c>
       <c r="D15">
-        <v>6020.210339696102</v>
+        <v>6006.75769890864</v>
       </c>
       <c r="E15">
         <v>360.1929999999999</v>
@@ -2466,37 +2466,37 @@
         <v>376.8</v>
       </c>
       <c r="M15">
-        <v>17.7830211</v>
+        <v>12.6909666</v>
       </c>
       <c r="N15">
-        <v>359.0169789</v>
+        <v>364.1090334</v>
       </c>
       <c r="O15">
-        <v>78.983735358</v>
+        <v>80.103987348</v>
       </c>
       <c r="P15">
-        <v>280.033243542</v>
+        <v>284.005046052</v>
       </c>
       <c r="Q15">
-        <v>317.233243542</v>
+        <v>321.205046052</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1229162057268262</v>
+        <v>0.1217889516118634</v>
       </c>
       <c r="T15">
         <v>1.119322059382758</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>21.18875065609634</v>
+        <v>29.69040986996216</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1090468823447423</v>
+        <v>0.107410785063753</v>
       </c>
       <c r="C16">
-        <v>5440.552037158366</v>
+        <v>5426.231171544874</v>
       </c>
       <c r="D16">
-        <v>6032.606037158366</v>
+        <v>6018.285171544873</v>
       </c>
       <c r="E16">
         <v>420.454</v>
@@ -2548,37 +2548,37 @@
         <v>376.8</v>
       </c>
       <c r="M16">
-        <v>19.1509458</v>
+        <v>13.6671948</v>
       </c>
       <c r="N16">
-        <v>357.6490542</v>
+        <v>363.1328052</v>
       </c>
       <c r="O16">
-        <v>78.682791924</v>
+        <v>79.889217144</v>
       </c>
       <c r="P16">
-        <v>278.966262276</v>
+        <v>283.243588056</v>
       </c>
       <c r="Q16">
-        <v>316.166262276</v>
+        <v>320.443588056</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1239163283078399</v>
+        <v>0.1228392384462244</v>
       </c>
       <c r="T16">
         <v>1.129772945496764</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>19.67526846637517</v>
+        <v>27.569666307822</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.108854885707146</v>
+        <v>0.1072225022251848</v>
       </c>
       <c r="C17">
-        <v>5392.737885771165</v>
+        <v>5377.541973629804</v>
       </c>
       <c r="D17">
-        <v>6045.052885771164</v>
+        <v>6029.856973629804</v>
       </c>
       <c r="E17">
         <v>480.7149999999999</v>
@@ -2630,37 +2630,37 @@
         <v>376.8</v>
       </c>
       <c r="M17">
-        <v>20.5188705</v>
+        <v>14.643423</v>
       </c>
       <c r="N17">
-        <v>356.2811295</v>
+        <v>362.156577</v>
       </c>
       <c r="O17">
-        <v>78.38184849000001</v>
+        <v>79.67444694000001</v>
       </c>
       <c r="P17">
-        <v>277.89928101</v>
+        <v>282.48213006</v>
       </c>
       <c r="Q17">
-        <v>315.09928101</v>
+        <v>319.68213006</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1249399831848776</v>
+        <v>0.1239142379119822</v>
       </c>
       <c r="T17">
         <v>1.140469734813453</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>18.36358390195016</v>
+        <v>25.73168855396721</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1086628890695495</v>
+        <v>0.1070342193866167</v>
       </c>
       <c r="C18">
-        <v>5344.975202803831</v>
+        <v>5328.897361362579</v>
       </c>
       <c r="D18">
-        <v>6057.551202803831</v>
+        <v>6041.473361362579</v>
       </c>
       <c r="E18">
         <v>540.9759999999999</v>
@@ -2712,37 +2712,37 @@
         <v>376.8</v>
       </c>
       <c r="M18">
-        <v>21.8867952</v>
+        <v>15.6196512</v>
       </c>
       <c r="N18">
-        <v>354.9132048</v>
+        <v>361.1803488</v>
       </c>
       <c r="O18">
-        <v>78.08090505600001</v>
+        <v>79.45967673599999</v>
       </c>
       <c r="P18">
-        <v>276.832299744</v>
+        <v>281.720672064</v>
       </c>
       <c r="Q18">
-        <v>314.032299744</v>
+        <v>318.920672064</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1259880107970828</v>
+        <v>0.1250148326031151</v>
       </c>
       <c r="T18">
         <v>1.151421209590064</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>17.21585990807828</v>
+        <v>24.12345801934425</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1084708924319532</v>
+        <v>0.1068459365480485</v>
       </c>
       <c r="C19">
-        <v>5297.264308154981</v>
+        <v>5280.297592920399</v>
       </c>
       <c r="D19">
-        <v>6070.101308154981</v>
+        <v>6053.134592920398</v>
       </c>
       <c r="E19">
         <v>601.2369999999999</v>
@@ -2794,37 +2794,37 @@
         <v>376.8</v>
       </c>
       <c r="M19">
-        <v>23.2547199</v>
+        <v>16.5958794</v>
       </c>
       <c r="N19">
-        <v>353.5452801</v>
+        <v>360.2041206</v>
       </c>
       <c r="O19">
-        <v>77.779961622</v>
+        <v>79.244906532</v>
       </c>
       <c r="P19">
-        <v>275.765318478</v>
+        <v>280.959214068</v>
       </c>
       <c r="Q19">
-        <v>312.965318478</v>
+        <v>318.159214068</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1270612920866906</v>
+        <v>0.1261419476482513</v>
       </c>
       <c r="T19">
         <v>1.162636575325146</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>16.20316226642661</v>
+        <v>22.70443107702988</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1082788957943567</v>
+        <v>0.1066576537094804</v>
       </c>
       <c r="C20">
-        <v>5249.605524379827</v>
+        <v>5231.742928477654</v>
       </c>
       <c r="D20">
-        <v>6082.703524379827</v>
+        <v>6064.840928477653</v>
       </c>
       <c r="E20">
         <v>661.4979999999998</v>
@@ -2876,37 +2876,37 @@
         <v>376.8</v>
       </c>
       <c r="M20">
-        <v>24.6226446</v>
+        <v>17.5721076</v>
       </c>
       <c r="N20">
-        <v>352.1773554</v>
+        <v>359.2278924</v>
       </c>
       <c r="O20">
-        <v>77.479018188</v>
+        <v>79.03013632800001</v>
       </c>
       <c r="P20">
-        <v>274.698337212</v>
+        <v>280.197756072</v>
       </c>
       <c r="Q20">
-        <v>311.898337212</v>
+        <v>317.397756072</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1281607509687277</v>
+        <v>0.1272965533042444</v>
       </c>
       <c r="T20">
         <v>1.174125486565963</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>15.30298658495847</v>
+        <v>21.44307379497267</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1080868991567603</v>
+        <v>0.1064693708709122</v>
       </c>
       <c r="C21">
-        <v>5201.999176717783</v>
+        <v>5183.233630225267</v>
       </c>
       <c r="D21">
-        <v>6095.358176717783</v>
+        <v>6076.592630225266</v>
       </c>
       <c r="E21">
         <v>721.7589999999998</v>
@@ -2958,37 +2958,37 @@
         <v>376.8</v>
       </c>
       <c r="M21">
-        <v>25.9905693</v>
+        <v>18.5483358</v>
       </c>
       <c r="N21">
-        <v>350.8094307</v>
+        <v>358.2516642</v>
       </c>
       <c r="O21">
-        <v>77.17807475400001</v>
+        <v>78.81536612399999</v>
       </c>
       <c r="P21">
-        <v>273.631355946</v>
+        <v>279.436298076</v>
       </c>
       <c r="Q21">
-        <v>310.831355946</v>
+        <v>316.636298076</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1292873569836547</v>
+        <v>0.1284796677418669</v>
       </c>
       <c r="T21">
         <v>1.18589807462754</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>14.49756623838171</v>
+        <v>20.31449096365832</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1078949025191639</v>
+        <v>0.1062810880323441</v>
       </c>
       <c r="C22">
-        <v>5154.445593120467</v>
+        <v>5134.76996239027</v>
       </c>
       <c r="D22">
-        <v>6108.065593120466</v>
+        <v>6088.38996239027</v>
       </c>
       <c r="E22">
         <v>782.02</v>
@@ -3040,37 +3040,37 @@
         <v>376.8</v>
       </c>
       <c r="M22">
-        <v>27.358494</v>
+        <v>19.524564</v>
       </c>
       <c r="N22">
-        <v>349.441506</v>
+        <v>357.275436</v>
       </c>
       <c r="O22">
-        <v>76.87713132</v>
+        <v>78.60059592</v>
       </c>
       <c r="P22">
-        <v>272.56437468</v>
+        <v>278.67484008</v>
       </c>
       <c r="Q22">
-        <v>309.76437468</v>
+        <v>315.87484008</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1304421281489549</v>
+        <v>0.1296923600404301</v>
       </c>
       <c r="T22">
         <v>1.197964977390657</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>13.77268792646262</v>
+        <v>19.2987664154754</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1077029058815675</v>
+        <v>0.1060928051937759</v>
       </c>
       <c r="C23">
-        <v>5106.945104280023</v>
+        <v>5086.352191255617</v>
       </c>
       <c r="D23">
-        <v>6120.826104280022</v>
+        <v>6100.233191255616</v>
       </c>
       <c r="E23">
         <v>842.2809999999997</v>
@@ -3122,37 +3122,37 @@
         <v>376.8</v>
       </c>
       <c r="M23">
-        <v>28.7264187</v>
+        <v>20.5007922</v>
       </c>
       <c r="N23">
-        <v>348.0735813</v>
+        <v>356.2992078</v>
       </c>
       <c r="O23">
-        <v>76.576187886</v>
+        <v>78.38582571600001</v>
       </c>
       <c r="P23">
-        <v>271.497393414</v>
+        <v>277.913382084</v>
       </c>
       <c r="Q23">
-        <v>308.697393414</v>
+        <v>315.113382084</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1316261340273007</v>
+        <v>0.1309357534098429</v>
       </c>
       <c r="T23">
         <v>1.210337371362966</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>13.11684564425011</v>
+        <v>18.37977753854801</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1075109092439711</v>
+        <v>0.1059045223552077</v>
       </c>
       <c r="C24">
-        <v>5059.498043657809</v>
+        <v>5037.980585180201</v>
       </c>
       <c r="D24">
-        <v>6133.640043657809</v>
+        <v>6112.122585180201</v>
       </c>
       <c r="E24">
         <v>902.5419999999999</v>
@@ -3204,37 +3204,37 @@
         <v>376.8</v>
       </c>
       <c r="M24">
-        <v>30.0943434</v>
+        <v>21.4770204</v>
       </c>
       <c r="N24">
-        <v>346.7056566</v>
+        <v>355.3229796</v>
       </c>
       <c r="O24">
-        <v>76.275244452</v>
+        <v>78.171055512</v>
       </c>
       <c r="P24">
-        <v>270.430412148</v>
+        <v>277.151924088</v>
       </c>
       <c r="Q24">
-        <v>307.630412148</v>
+        <v>314.351924088</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1328404990307322</v>
+        <v>0.1322110286605227</v>
       </c>
       <c r="T24">
         <v>1.223027006206361</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>12.52062538769329</v>
+        <v>17.54433310497764</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1073189126063747</v>
+        <v>0.1057162395166396</v>
       </c>
       <c r="C25">
-        <v>5012.104747513449</v>
+        <v>4989.655414619137</v>
       </c>
       <c r="D25">
-        <v>6146.507747513449</v>
+        <v>6124.058414619137</v>
       </c>
       <c r="E25">
         <v>962.8029999999999</v>
@@ -3286,37 +3286,37 @@
         <v>376.8</v>
       </c>
       <c r="M25">
-        <v>31.4622681</v>
+        <v>22.4532486</v>
       </c>
       <c r="N25">
-        <v>345.3377319</v>
+        <v>354.3467514</v>
       </c>
       <c r="O25">
-        <v>75.97430101800001</v>
+        <v>77.95628530800001</v>
       </c>
       <c r="P25">
-        <v>269.363430882</v>
+        <v>276.390466092</v>
       </c>
       <c r="Q25">
-        <v>306.563430882</v>
+        <v>313.590466092</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1340864059823049</v>
+        <v>0.1335194279436878</v>
       </c>
       <c r="T25">
         <v>1.236046241954779</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>11.97625037083706</v>
+        <v>16.78153601345687</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1071269159687783</v>
+        <v>0.1055279566780715</v>
       </c>
       <c r="C26">
-        <v>4964.765554934234</v>
+        <v>4941.376952144267</v>
       </c>
       <c r="D26">
-        <v>6159.429554934234</v>
+        <v>6136.040952144267</v>
       </c>
       <c r="E26">
         <v>1023.064</v>
@@ -3368,37 +3368,37 @@
         <v>376.8</v>
       </c>
       <c r="M26">
-        <v>32.8301928</v>
+        <v>23.4294768</v>
       </c>
       <c r="N26">
-        <v>343.9698072</v>
+        <v>353.3705232</v>
       </c>
       <c r="O26">
-        <v>75.673357584</v>
+        <v>77.74151510400002</v>
       </c>
       <c r="P26">
-        <v>268.296449616</v>
+        <v>275.629008096</v>
       </c>
       <c r="Q26">
-        <v>305.496449616</v>
+        <v>312.829008096</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1353650999589188</v>
+        <v>0.1348622587869361</v>
       </c>
       <c r="T26">
         <v>1.24940808917026</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>11.47723993871885</v>
+        <v>16.0823053462295</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1069349193311819</v>
+        <v>0.1053396738395033</v>
       </c>
       <c r="C27">
-        <v>4917.480807864923</v>
+        <v>4893.14547246491</v>
       </c>
       <c r="D27">
-        <v>6172.405807864922</v>
+        <v>6148.070472464909</v>
       </c>
       <c r="E27">
         <v>1083.325</v>
@@ -3450,37 +3450,37 @@
         <v>376.8</v>
       </c>
       <c r="M27">
-        <v>34.1981175</v>
+        <v>24.405705</v>
       </c>
       <c r="N27">
-        <v>342.6018825</v>
+        <v>352.394295</v>
       </c>
       <c r="O27">
-        <v>75.37241415</v>
+        <v>77.5267449</v>
       </c>
       <c r="P27">
-        <v>267.22946835</v>
+        <v>274.8675501</v>
       </c>
       <c r="Q27">
-        <v>304.42946835</v>
+        <v>312.0675501</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1366778924415759</v>
+        <v>0.1362408984526711</v>
       </c>
       <c r="T27">
         <v>1.263126252311488</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>11.01815034117009</v>
+        <v>15.43901313238032</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1067429226935855</v>
+        <v>0.1051513910009351</v>
       </c>
       <c r="C28">
-        <v>4870.250851137893</v>
+        <v>4844.961252448848</v>
       </c>
       <c r="D28">
-        <v>6185.436851137893</v>
+        <v>6160.147252448848</v>
       </c>
       <c r="E28">
         <v>1143.586</v>
@@ -3532,37 +3532,37 @@
         <v>376.8</v>
       </c>
       <c r="M28">
-        <v>35.5660422</v>
+        <v>25.3819332</v>
       </c>
       <c r="N28">
-        <v>341.2339578</v>
+        <v>351.4180668</v>
       </c>
       <c r="O28">
-        <v>75.07147071599999</v>
+        <v>77.31197469600001</v>
       </c>
       <c r="P28">
-        <v>266.162487084</v>
+        <v>274.106092104</v>
       </c>
       <c r="Q28">
-        <v>303.362487084</v>
+        <v>311.306092104</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1380261658021426</v>
+        <v>0.1376567986499123</v>
       </c>
       <c r="T28">
         <v>1.277215176618694</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>10.59437532804817</v>
+        <v>14.84520493498108</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1065509260559891</v>
+        <v>0.104963108162367</v>
       </c>
       <c r="C29">
-        <v>4823.076032503697</v>
+        <v>4796.824571143579</v>
       </c>
       <c r="D29">
-        <v>6198.523032503697</v>
+        <v>6172.271571143579</v>
       </c>
       <c r="E29">
         <v>1203.847</v>
@@ -3614,37 +3614,37 @@
         <v>376.8</v>
       </c>
       <c r="M29">
-        <v>36.9339669</v>
+        <v>26.3581614</v>
       </c>
       <c r="N29">
-        <v>339.8660331</v>
+        <v>350.4418386</v>
       </c>
       <c r="O29">
-        <v>74.770527282</v>
+        <v>77.097204492</v>
       </c>
       <c r="P29">
-        <v>265.095505818</v>
+        <v>273.344634108</v>
       </c>
       <c r="Q29">
-        <v>302.295505818</v>
+        <v>310.544634108</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1394113781588892</v>
+        <v>0.1391114906333794</v>
       </c>
       <c r="T29">
         <v>1.291690098852126</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>10.20199105663898</v>
+        <v>14.29538252998178</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1063589294183927</v>
+        <v>0.1047748253237988</v>
       </c>
       <c r="C30">
-        <v>4775.95670266199</v>
+        <v>4748.735709797796</v>
       </c>
       <c r="D30">
-        <v>6211.664702661989</v>
+        <v>6184.443709797795</v>
       </c>
       <c r="E30">
         <v>1264.108</v>
@@ -3696,37 +3696,37 @@
         <v>376.8</v>
       </c>
       <c r="M30">
-        <v>38.3018916</v>
+        <v>27.3343896</v>
       </c>
       <c r="N30">
-        <v>338.4981084</v>
+        <v>349.4656104</v>
       </c>
       <c r="O30">
-        <v>74.469583848</v>
+        <v>76.882434288</v>
       </c>
       <c r="P30">
-        <v>264.028524552</v>
+        <v>272.583176112</v>
       </c>
       <c r="Q30">
-        <v>301.228524552</v>
+        <v>309.783176112</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1408350686366566</v>
+        <v>0.1406065907274984</v>
       </c>
       <c r="T30">
         <v>1.306567102258708</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>9.837634233187583</v>
+        <v>13.784833153911</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1061669327807963</v>
+        <v>0.1045865424852307</v>
       </c>
       <c r="C31">
-        <v>4728.893215292858</v>
+        <v>4700.694951883148</v>
       </c>
       <c r="D31">
-        <v>6224.862215292857</v>
+        <v>6196.663951883147</v>
       </c>
       <c r="E31">
         <v>1324.369</v>
@@ -3778,37 +3778,37 @@
         <v>376.8</v>
       </c>
       <c r="M31">
-        <v>39.66981629999999</v>
+        <v>28.3106178</v>
       </c>
       <c r="N31">
-        <v>337.1301837</v>
+        <v>348.4893822</v>
       </c>
       <c r="O31">
-        <v>74.16864041400001</v>
+        <v>76.66766408400001</v>
       </c>
       <c r="P31">
-        <v>262.9615432860001</v>
+        <v>271.821718116</v>
       </c>
       <c r="Q31">
-        <v>300.161543286</v>
+        <v>309.021718116</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1422988630715441</v>
+        <v>0.1421438063172263</v>
       </c>
       <c r="T31">
         <v>1.321863176183786</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>9.498405466525947</v>
+        <v>13.30949407963821</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1059749361431999</v>
+        <v>0.1043982596466625</v>
       </c>
       <c r="C32">
-        <v>4681.885927088551</v>
+        <v>4652.702583116239</v>
       </c>
       <c r="D32">
-        <v>6238.115927088551</v>
+        <v>6208.932583116239</v>
       </c>
       <c r="E32">
         <v>1384.63</v>
@@ -3860,37 +3860,37 @@
         <v>376.8</v>
       </c>
       <c r="M32">
-        <v>41.037741</v>
+        <v>29.28684599999999</v>
       </c>
       <c r="N32">
-        <v>335.762259</v>
+        <v>347.513154</v>
       </c>
       <c r="O32">
-        <v>73.86769698000001</v>
+        <v>76.45289388</v>
       </c>
       <c r="P32">
-        <v>261.89456202</v>
+        <v>271.0602601200001</v>
       </c>
       <c r="Q32">
-        <v>299.09456202</v>
+        <v>308.2602601200001</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1438044802045713</v>
+        <v>0.143724942352375</v>
       </c>
       <c r="T32">
         <v>1.337596280792437</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>9.18179195097508</v>
+        <v>12.8658442769836</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1061698195056035</v>
+        <v>0.1042099768080944</v>
       </c>
       <c r="C33">
-        <v>4608.172371649298</v>
+        <v>4604.758891480889</v>
       </c>
       <c r="D33">
-        <v>6224.663371649297</v>
+        <v>6221.249891480889</v>
       </c>
       <c r="E33">
         <v>1444.891</v>
@@ -3942,45 +3942,45 @@
         <v>376.8</v>
       </c>
       <c r="M33">
-        <v>45.3946113</v>
+        <v>30.2630742</v>
       </c>
       <c r="N33">
-        <v>331.4053887</v>
+        <v>346.5369258</v>
       </c>
       <c r="O33">
-        <v>72.909185514</v>
+        <v>76.238123676</v>
       </c>
       <c r="P33">
-        <v>258.496203186</v>
+        <v>270.298802124</v>
       </c>
       <c r="Q33">
-        <v>295.696203186</v>
+        <v>307.498802124</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1453537384139182</v>
+        <v>0.1453519084175281</v>
       </c>
       <c r="T33">
         <v>1.35378541741873</v>
       </c>
       <c r="U33">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y33">
-        <v>8.300544694828128</v>
+        <v>12.45081704224219</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1059903028680071</v>
+        <v>0.1040216939695262</v>
       </c>
       <c r="C34">
-        <v>4560.301069910799</v>
+        <v>4556.864167250692</v>
       </c>
       <c r="D34">
-        <v>6237.053069910799</v>
+        <v>6233.616167250691</v>
       </c>
       <c r="E34">
         <v>1505.152</v>
@@ -4024,45 +4024,45 @@
         <v>376.8</v>
       </c>
       <c r="M34">
-        <v>46.8589536</v>
+        <v>31.2393024</v>
       </c>
       <c r="N34">
-        <v>329.9410464</v>
+        <v>345.5606976</v>
       </c>
       <c r="O34">
-        <v>72.587030208</v>
+        <v>76.02335347200001</v>
       </c>
       <c r="P34">
-        <v>257.354016192</v>
+        <v>269.537344128</v>
       </c>
       <c r="Q34">
-        <v>294.554016192</v>
+        <v>306.737344128</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1469485630411869</v>
+        <v>0.1470267264257738</v>
       </c>
       <c r="T34">
         <v>1.370450705122268</v>
       </c>
       <c r="U34">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y34">
-        <v>8.041152673114748</v>
+        <v>12.06172900967213</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1058107862304107</v>
+        <v>0.103833411130958</v>
       </c>
       <c r="C35">
-        <v>4512.479187959992</v>
+        <v>4509.018703011783</v>
       </c>
       <c r="D35">
-        <v>6249.492187959991</v>
+        <v>6246.031703011783</v>
       </c>
       <c r="E35">
         <v>1565.413</v>
@@ -4106,45 +4106,45 @@
         <v>376.8</v>
       </c>
       <c r="M35">
-        <v>48.3232959</v>
+        <v>32.21553059999999</v>
       </c>
       <c r="N35">
-        <v>328.4767041</v>
+        <v>344.5844694</v>
       </c>
       <c r="O35">
-        <v>72.264874902</v>
+        <v>75.80858326799999</v>
       </c>
       <c r="P35">
-        <v>256.211829198</v>
+        <v>268.775886132</v>
       </c>
       <c r="Q35">
-        <v>293.411829198</v>
+        <v>305.975886132</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1485909943737473</v>
+        <v>0.1487515390014299</v>
       </c>
       <c r="T35">
         <v>1.387613464100537</v>
       </c>
       <c r="U35">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y35">
-        <v>7.79748137999006</v>
+        <v>11.69622206998509</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1056312695928143</v>
+        <v>0.1036451282923899</v>
       </c>
       <c r="C36">
-        <v>4464.707022074803</v>
+        <v>4461.222793685943</v>
       </c>
       <c r="D36">
-        <v>6261.981022074802</v>
+        <v>6258.496793685942</v>
       </c>
       <c r="E36">
         <v>1625.674</v>
@@ -4188,45 +4188,45 @@
         <v>376.8</v>
       </c>
       <c r="M36">
-        <v>49.7876382</v>
+        <v>33.1917588</v>
       </c>
       <c r="N36">
-        <v>327.0123618</v>
+        <v>343.6082412</v>
       </c>
       <c r="O36">
-        <v>71.942719596</v>
+        <v>75.593813064</v>
       </c>
       <c r="P36">
-        <v>255.069642204</v>
+        <v>268.014428136</v>
       </c>
       <c r="Q36">
-        <v>292.269642204</v>
+        <v>305.214428136</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.150283196352749</v>
+        <v>0.1505286186248332</v>
       </c>
       <c r="T36">
         <v>1.405296306684209</v>
       </c>
       <c r="U36">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y36">
-        <v>7.568143692343294</v>
+        <v>11.35221553851494</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1054517529552179</v>
+        <v>0.1034568454538217</v>
       </c>
       <c r="C37">
-        <v>4416.984870906203</v>
+        <v>4413.476736553934</v>
       </c>
       <c r="D37">
-        <v>6274.519870906202</v>
+        <v>6271.011736553934</v>
       </c>
       <c r="E37">
         <v>1685.935</v>
@@ -4270,45 +4270,45 @@
         <v>376.8</v>
       </c>
       <c r="M37">
-        <v>51.25198050000001</v>
+        <v>34.167987</v>
       </c>
       <c r="N37">
-        <v>325.5480195</v>
+        <v>342.632013</v>
       </c>
       <c r="O37">
-        <v>71.62056429</v>
+        <v>75.37904286000001</v>
       </c>
       <c r="P37">
-        <v>253.92745521</v>
+        <v>267.25297014</v>
       </c>
       <c r="Q37">
-        <v>291.12745521</v>
+        <v>304.45297014</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1520274660849506</v>
+        <v>0.1523603776212642</v>
       </c>
       <c r="T37">
         <v>1.423523236731994</v>
       </c>
       <c r="U37">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y37">
-        <v>7.351911015419199</v>
+        <v>11.0278665231288</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4319,13 +4319,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1052722363176215</v>
+        <v>0.1032685626152536</v>
       </c>
       <c r="C38">
-        <v>4369.313035502003</v>
+        <v>4365.780831279145</v>
       </c>
       <c r="D38">
-        <v>6287.109035502002</v>
+        <v>6283.576831279144</v>
       </c>
       <c r="E38">
         <v>1746.196</v>
@@ -4352,45 +4352,45 @@
         <v>376.8</v>
       </c>
       <c r="M38">
-        <v>52.7163228</v>
+        <v>35.14421519999999</v>
       </c>
       <c r="N38">
-        <v>324.0836772</v>
+        <v>341.6557848</v>
       </c>
       <c r="O38">
-        <v>71.29840898400001</v>
+        <v>75.16427265599999</v>
       </c>
       <c r="P38">
-        <v>252.785268216</v>
+        <v>266.491512144</v>
       </c>
       <c r="Q38">
-        <v>289.985268216</v>
+        <v>303.691512144</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1538262442462836</v>
+        <v>0.1542493790863337</v>
       </c>
       <c r="T38">
         <v>1.442319758343772</v>
       </c>
       <c r="U38">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y38">
-        <v>7.147691264990888</v>
+        <v>10.72153689748633</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1057276396800251</v>
+        <v>0.1030802797766854</v>
       </c>
       <c r="C39">
-        <v>4277.213430544136</v>
+        <v>4318.135379931502</v>
       </c>
       <c r="D39">
-        <v>6255.270430544135</v>
+        <v>6296.192379931501</v>
       </c>
       <c r="E39">
         <v>1806.457</v>
@@ -4434,45 +4434,45 @@
         <v>376.8</v>
       </c>
       <c r="M39">
-        <v>59.0859105</v>
+        <v>36.12044339999999</v>
       </c>
       <c r="N39">
-        <v>317.7140895</v>
+        <v>340.6795566</v>
       </c>
       <c r="O39">
-        <v>69.89709969</v>
+        <v>74.949502452</v>
       </c>
       <c r="P39">
-        <v>247.81698981</v>
+        <v>265.730054148</v>
       </c>
       <c r="Q39">
-        <v>285.01698981</v>
+        <v>302.930054148</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1556821264762303</v>
+        <v>0.1561983488518816</v>
       </c>
       <c r="T39">
         <v>1.461712994927353</v>
       </c>
       <c r="U39">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y39">
-        <v>6.377154837954135</v>
+        <v>10.4317656299867</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4483,13 +4483,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1055652830424287</v>
+        <v>0.1028919969381173</v>
       </c>
       <c r="C40">
-        <v>4228.266210659766</v>
+        <v>4270.540687011672</v>
       </c>
       <c r="D40">
-        <v>6266.584210659766</v>
+        <v>6308.858687011671</v>
       </c>
       <c r="E40">
         <v>1866.718</v>
@@ -4516,45 +4516,45 @@
         <v>376.8</v>
       </c>
       <c r="M40">
-        <v>60.682827</v>
+        <v>37.09667159999999</v>
       </c>
       <c r="N40">
-        <v>316.117173</v>
+        <v>339.7033284</v>
       </c>
       <c r="O40">
-        <v>69.54577806</v>
+        <v>74.73473224800001</v>
       </c>
       <c r="P40">
-        <v>246.57139494</v>
+        <v>264.968596152</v>
       </c>
       <c r="Q40">
-        <v>283.7713949400001</v>
+        <v>302.168596152</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.157597875874885</v>
+        <v>0.1582101886098665</v>
       </c>
       <c r="T40">
         <v>1.481731819787823</v>
       </c>
       <c r="U40">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y40">
-        <v>6.209334973797448</v>
+        <v>10.15724548182916</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1054029264048323</v>
+        <v>0.1027037140995491</v>
       </c>
       <c r="C41">
-        <v>4179.359990938488</v>
+        <v>4222.997059475576</v>
       </c>
       <c r="D41">
-        <v>6277.938990938488</v>
+        <v>6321.576059475576</v>
       </c>
       <c r="E41">
         <v>1926.979</v>
@@ -4598,45 +4598,45 @@
         <v>376.8</v>
       </c>
       <c r="M41">
-        <v>62.27974350000001</v>
+        <v>38.0728998</v>
       </c>
       <c r="N41">
-        <v>314.5202565</v>
+        <v>338.7271002</v>
       </c>
       <c r="O41">
-        <v>69.19445643</v>
+        <v>74.519962044</v>
       </c>
       <c r="P41">
-        <v>245.32580007</v>
+        <v>264.207138156</v>
       </c>
       <c r="Q41">
-        <v>282.52580007</v>
+        <v>301.407138156</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1595764367292333</v>
+        <v>0.1602879903271297</v>
       </c>
       <c r="T41">
         <v>1.502406999561751</v>
       </c>
       <c r="U41">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y41">
-        <v>6.050121256520589</v>
+        <v>9.896803289987384</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4647,13 +4647,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1052405697672359</v>
+        <v>0.1025154312609809</v>
       </c>
       <c r="C42">
-        <v>4130.494994656452</v>
+        <v>4175.504806759167</v>
       </c>
       <c r="D42">
-        <v>6289.334994656451</v>
+        <v>6334.344806759167</v>
       </c>
       <c r="E42">
         <v>1987.24</v>
@@ -4680,45 +4680,45 @@
         <v>376.8</v>
       </c>
       <c r="M42">
-        <v>63.87666000000001</v>
+        <v>39.049128</v>
       </c>
       <c r="N42">
-        <v>312.92334</v>
+        <v>337.750872</v>
       </c>
       <c r="O42">
-        <v>68.8431348</v>
+        <v>74.30519184000001</v>
       </c>
       <c r="P42">
-        <v>244.0802052</v>
+        <v>263.44568016</v>
       </c>
       <c r="Q42">
-        <v>281.2802052</v>
+        <v>300.64568016</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1616209496120598</v>
+        <v>0.1624350521016349</v>
       </c>
       <c r="T42">
         <v>1.52377135199481</v>
       </c>
       <c r="U42">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y42">
-        <v>5.898868225107574</v>
+        <v>9.649383207737701</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1050782131296395</v>
+        <v>0.1023271484224128</v>
       </c>
       <c r="C43">
-        <v>4081.671446713955</v>
+        <v>4128.064240803545</v>
       </c>
       <c r="D43">
-        <v>6300.772446713954</v>
+        <v>6347.165240803544</v>
       </c>
       <c r="E43">
         <v>2047.501</v>
@@ -4762,45 +4762,45 @@
         <v>376.8</v>
       </c>
       <c r="M43">
-        <v>65.47357650000001</v>
+        <v>40.0253562</v>
       </c>
       <c r="N43">
-        <v>311.3264235</v>
+        <v>336.7746438</v>
       </c>
       <c r="O43">
-        <v>68.49181317000001</v>
+        <v>74.090421636</v>
       </c>
       <c r="P43">
-        <v>242.83461033</v>
+        <v>262.6842221640001</v>
       </c>
       <c r="Q43">
-        <v>280.03461033</v>
+        <v>299.8842221640001</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1637347680163381</v>
+        <v>0.1646548956312081</v>
       </c>
       <c r="T43">
         <v>1.545859919764583</v>
       </c>
       <c r="U43">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y43">
-        <v>5.754993390348853</v>
+        <v>9.414032397792878</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1052762164920431</v>
+        <v>0.1026630255838446</v>
       </c>
       <c r="C44">
-        <v>4007.467365757907</v>
+        <v>4044.969063880847</v>
       </c>
       <c r="D44">
-        <v>6286.829365757906</v>
+        <v>6324.331063880846</v>
       </c>
       <c r="E44">
         <v>2107.762</v>
@@ -4844,45 +4844,45 @@
         <v>376.8</v>
       </c>
       <c r="M44">
-        <v>69.85455119999999</v>
+        <v>45.05112359999999</v>
       </c>
       <c r="N44">
-        <v>306.9454488</v>
+        <v>331.7488764</v>
       </c>
       <c r="O44">
-        <v>67.527998736</v>
+        <v>72.98475280800001</v>
       </c>
       <c r="P44">
-        <v>239.417450064</v>
+        <v>258.764123592</v>
       </c>
       <c r="Q44">
-        <v>276.617450064</v>
+        <v>295.964123592</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1659214767104191</v>
+        <v>0.1669512854893873</v>
       </c>
       <c r="T44">
         <v>1.568710162285039</v>
       </c>
       <c r="U44">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y44">
-        <v>5.394065147182565</v>
+        <v>8.36383135181117</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1051224398544467</v>
+        <v>0.1024872227452765</v>
       </c>
       <c r="C45">
-        <v>3958.029709618464</v>
+        <v>3996.639263462942</v>
       </c>
       <c r="D45">
-        <v>6297.652709618463</v>
+        <v>6336.262263462942</v>
       </c>
       <c r="E45">
         <v>2168.023</v>
@@ -4926,45 +4926,45 @@
         <v>376.8</v>
       </c>
       <c r="M45">
-        <v>71.51775479999999</v>
+        <v>46.12376939999999</v>
       </c>
       <c r="N45">
-        <v>305.2822452</v>
+        <v>330.6762306</v>
       </c>
       <c r="O45">
-        <v>67.16209394400001</v>
+        <v>72.748770732</v>
       </c>
       <c r="P45">
-        <v>238.120151256</v>
+        <v>257.927459868</v>
       </c>
       <c r="Q45">
-        <v>275.320151256</v>
+        <v>295.127459868</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1681849120253451</v>
+        <v>0.1693282504303096</v>
       </c>
       <c r="T45">
         <v>1.592362167700948</v>
       </c>
       <c r="U45">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y45">
-        <v>5.268621771666692</v>
+        <v>8.169323645955096</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1049686632168503</v>
+        <v>0.1023114199067083</v>
       </c>
       <c r="C46">
-        <v>3908.629384473258</v>
+        <v>3948.354565866951</v>
       </c>
       <c r="D46">
-        <v>6308.513384473257</v>
+        <v>6348.238565866951</v>
       </c>
       <c r="E46">
         <v>2228.284</v>
@@ -5008,45 +5008,45 @@
         <v>376.8</v>
       </c>
       <c r="M46">
-        <v>73.18095839999999</v>
+        <v>47.1964152</v>
       </c>
       <c r="N46">
-        <v>303.6190416</v>
+        <v>329.6035848</v>
       </c>
       <c r="O46">
-        <v>66.796189152</v>
+        <v>72.51278865600001</v>
       </c>
       <c r="P46">
-        <v>236.822852448</v>
+        <v>257.090796144</v>
       </c>
       <c r="Q46">
-        <v>274.022852448</v>
+        <v>294.290796144</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1705291843158041</v>
+        <v>0.1717901069762649</v>
       </c>
       <c r="T46">
         <v>1.616858887595997</v>
       </c>
       <c r="U46">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y46">
-        <v>5.148880367765176</v>
+        <v>7.983657199456116</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5057,13 +5057,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1048148865792539</v>
+        <v>0.1021356170681402</v>
       </c>
       <c r="C47">
-        <v>3859.266583794475</v>
+        <v>3900.115227326562</v>
       </c>
       <c r="D47">
-        <v>6319.411583794475</v>
+        <v>6360.260227326562</v>
       </c>
       <c r="E47">
         <v>2288.545</v>
@@ -5090,45 +5090,45 @@
         <v>376.8</v>
       </c>
       <c r="M47">
-        <v>74.844162</v>
+        <v>48.269061</v>
       </c>
       <c r="N47">
-        <v>301.955838</v>
+        <v>328.530939</v>
       </c>
       <c r="O47">
-        <v>66.43028436</v>
+        <v>72.27680658</v>
       </c>
       <c r="P47">
-        <v>235.52555364</v>
+        <v>256.25413242</v>
       </c>
       <c r="Q47">
-        <v>272.72555364</v>
+        <v>293.45413242</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1729587028713707</v>
+        <v>0.1743414855784367</v>
       </c>
       <c r="T47">
         <v>1.642246397305412</v>
       </c>
       <c r="U47">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y47">
-        <v>5.034460804037061</v>
+        <v>7.806242595023757</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1046611099416575</v>
+        <v>0.101959814229572</v>
       </c>
       <c r="C48">
-        <v>3809.941502393532</v>
+        <v>3851.921506020063</v>
       </c>
       <c r="D48">
-        <v>6330.347502393532</v>
+        <v>6372.327506020062</v>
       </c>
       <c r="E48">
         <v>2348.806</v>
@@ -5172,45 +5172,45 @@
         <v>376.8</v>
       </c>
       <c r="M48">
-        <v>76.5073656</v>
+        <v>49.3417068</v>
       </c>
       <c r="N48">
-        <v>300.2926344</v>
+        <v>327.4582932</v>
       </c>
       <c r="O48">
-        <v>66.06437956800001</v>
+        <v>72.040824504</v>
       </c>
       <c r="P48">
-        <v>234.228254832</v>
+        <v>255.417468696</v>
       </c>
       <c r="Q48">
-        <v>271.428254832</v>
+        <v>292.617468696</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.175478203595662</v>
+        <v>0.1769873596843926</v>
       </c>
       <c r="T48">
         <v>1.668574185152212</v>
       </c>
       <c r="U48">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y48">
-        <v>4.925016003949298</v>
+        <v>7.63654166904498</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1045073333040611</v>
+        <v>0.1017840113910039</v>
       </c>
       <c r="C49">
-        <v>3760.654336432687</v>
+        <v>3803.773662088822</v>
       </c>
       <c r="D49">
-        <v>6341.321336432687</v>
+        <v>6384.440662088821</v>
       </c>
       <c r="E49">
         <v>2409.067</v>
@@ -5254,45 +5254,45 @@
         <v>376.8</v>
       </c>
       <c r="M49">
-        <v>78.17056919999999</v>
+        <v>50.41435259999999</v>
       </c>
       <c r="N49">
-        <v>298.6294308</v>
+        <v>326.3856474</v>
       </c>
       <c r="O49">
-        <v>65.69847477600001</v>
+        <v>71.80484242800001</v>
       </c>
       <c r="P49">
-        <v>232.930956024</v>
+        <v>254.580804972</v>
       </c>
       <c r="Q49">
-        <v>270.130956024</v>
+        <v>291.780804972</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1780927798189832</v>
+        <v>0.1797330780962337</v>
       </c>
       <c r="T49">
         <v>1.695895474427193</v>
       </c>
       <c r="U49">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y49">
-        <v>4.820228429397186</v>
+        <v>7.4740620590653</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5303,13 +5303,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1043535566664647</v>
+        <v>0.1016082085524357</v>
       </c>
       <c r="C50">
-        <v>3711.405283436781</v>
+        <v>3755.671957655994</v>
       </c>
       <c r="D50">
-        <v>6352.33328343678</v>
+        <v>6396.599957655993</v>
       </c>
       <c r="E50">
         <v>2469.328</v>
@@ -5336,45 +5336,45 @@
         <v>376.8</v>
       </c>
       <c r="M50">
-        <v>79.83377279999999</v>
+        <v>51.4869984</v>
       </c>
       <c r="N50">
-        <v>296.9662272</v>
+        <v>325.3130016</v>
       </c>
       <c r="O50">
-        <v>65.33256998400002</v>
+        <v>71.568860352</v>
       </c>
       <c r="P50">
-        <v>231.633657216</v>
+        <v>253.744141248</v>
       </c>
       <c r="Q50">
-        <v>268.833657216</v>
+        <v>290.944141248</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1808079166662782</v>
+        <v>0.1825844010623763</v>
       </c>
       <c r="T50">
         <v>1.724267582520443</v>
       </c>
       <c r="U50">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y50">
-        <v>4.719807003784745</v>
+        <v>7.318352432834772</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1041997800288683</v>
+        <v>0.1022732457138675</v>
       </c>
       <c r="C51">
-        <v>3662.194542305067</v>
+        <v>3649.656110162055</v>
       </c>
       <c r="D51">
-        <v>6363.383542305067</v>
+        <v>6350.845110162054</v>
       </c>
       <c r="E51">
         <v>2529.589</v>
@@ -5418,45 +5418,45 @@
         <v>376.8</v>
       </c>
       <c r="M51">
-        <v>81.49697639999999</v>
+        <v>59.05577999999998</v>
       </c>
       <c r="N51">
-        <v>295.3030236</v>
+        <v>317.74422</v>
       </c>
       <c r="O51">
-        <v>64.96666519200001</v>
+        <v>69.90372840000001</v>
       </c>
       <c r="P51">
-        <v>230.336358408</v>
+        <v>247.8404916</v>
       </c>
       <c r="Q51">
-        <v>267.536358408</v>
+        <v>285.0404916</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1836295294683692</v>
+        <v>0.1855475406154266</v>
       </c>
       <c r="T51">
         <v>1.753752322303625</v>
       </c>
       <c r="U51">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y51">
-        <v>4.62348441187077</v>
+        <v>6.380408488381664</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1040460033912719</v>
+        <v>0.1021146028752994</v>
       </c>
       <c r="C52">
-        <v>3613.02231332321</v>
+        <v>3600.250256490015</v>
       </c>
       <c r="D52">
-        <v>6374.472313323209</v>
+        <v>6361.700256490014</v>
       </c>
       <c r="E52">
         <v>2589.85</v>
@@ -5500,45 +5500,45 @@
         <v>376.8</v>
       </c>
       <c r="M52">
-        <v>83.16018</v>
+        <v>60.26099999999999</v>
       </c>
       <c r="N52">
-        <v>293.63982</v>
+        <v>316.539</v>
       </c>
       <c r="O52">
-        <v>64.6007604</v>
+        <v>69.63858</v>
       </c>
       <c r="P52">
-        <v>229.0390596</v>
+        <v>246.9004200000001</v>
       </c>
       <c r="Q52">
-        <v>266.2390596</v>
+        <v>284.10042</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1865640067825438</v>
+        <v>0.1886292057505988</v>
       </c>
       <c r="T52">
         <v>1.784416451678133</v>
       </c>
       <c r="U52">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y52">
-        <v>4.531014723633355</v>
+        <v>6.252800318614031</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1038922267536755</v>
+        <v>0.1019559600367312</v>
       </c>
       <c r="C53">
-        <v>3563.888798175366</v>
+        <v>3550.881574549308</v>
       </c>
       <c r="D53">
-        <v>6385.599798175365</v>
+        <v>6372.592574549307</v>
       </c>
       <c r="E53">
         <v>2650.111</v>
@@ -5582,45 +5582,45 @@
         <v>376.8</v>
       </c>
       <c r="M53">
-        <v>84.82338359999999</v>
+        <v>61.46621999999999</v>
       </c>
       <c r="N53">
-        <v>291.9766164</v>
+        <v>315.33378</v>
       </c>
       <c r="O53">
-        <v>64.234855608</v>
+        <v>69.37343160000002</v>
       </c>
       <c r="P53">
-        <v>227.741760792</v>
+        <v>245.9603484</v>
       </c>
       <c r="Q53">
-        <v>264.941760792</v>
+        <v>283.1603484</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1896182586809703</v>
+        <v>0.1918366531361862</v>
       </c>
       <c r="T53">
         <v>1.816332178169969</v>
       </c>
       <c r="U53">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y53">
-        <v>4.44217129767976</v>
+        <v>6.130196390798069</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5631,13 +5631,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1037384501160791</v>
+        <v>0.1017973171981631</v>
       </c>
       <c r="C54">
-        <v>3514.794199956422</v>
+        <v>3501.550255600479</v>
       </c>
       <c r="D54">
-        <v>6396.766199956422</v>
+        <v>6383.522255600478</v>
       </c>
       <c r="E54">
         <v>2710.372</v>
@@ -5664,45 +5664,45 @@
         <v>376.8</v>
       </c>
       <c r="M54">
-        <v>86.48658719999999</v>
+        <v>62.67143999999998</v>
       </c>
       <c r="N54">
-        <v>290.3134128</v>
+        <v>314.12856</v>
       </c>
       <c r="O54">
-        <v>63.86895081600001</v>
+        <v>69.10828320000002</v>
       </c>
       <c r="P54">
-        <v>226.444461984</v>
+        <v>245.0202768</v>
       </c>
       <c r="Q54">
-        <v>263.644461984</v>
+        <v>282.2202768</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1927997710751647</v>
+        <v>0.1951777441628398</v>
       </c>
       <c r="T54">
         <v>1.849577726598964</v>
       </c>
       <c r="U54">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y54">
-        <v>4.356744926570534</v>
+        <v>6.012307998667338</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1035846734784827</v>
+        <v>0.1016386743595949</v>
       </c>
       <c r="C55">
-        <v>3465.738723184355</v>
+        <v>3452.256492218449</v>
       </c>
       <c r="D55">
-        <v>6407.971723184355</v>
+        <v>6394.489492218449</v>
       </c>
       <c r="E55">
         <v>2770.633</v>
@@ -5746,45 +5746,45 @@
         <v>376.8</v>
       </c>
       <c r="M55">
-        <v>88.14979080000001</v>
+        <v>63.87665999999999</v>
       </c>
       <c r="N55">
-        <v>288.6502092</v>
+        <v>312.92334</v>
       </c>
       <c r="O55">
-        <v>63.503046024</v>
+        <v>68.8431348</v>
       </c>
       <c r="P55">
-        <v>225.147163176</v>
+        <v>244.0802052</v>
       </c>
       <c r="Q55">
-        <v>262.347163176</v>
+        <v>281.2802052</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.196116666975495</v>
+        <v>0.1986610092757339</v>
       </c>
       <c r="T55">
         <v>1.884237979216427</v>
       </c>
       <c r="U55">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y55">
-        <v>4.274542192106938</v>
+        <v>5.898868225107575</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5795,13 +5795,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1040626968408863</v>
+        <v>0.1019433515210268</v>
       </c>
       <c r="C56">
-        <v>3370.772685847622</v>
+        <v>3370.965867584752</v>
       </c>
       <c r="D56">
-        <v>6373.266685847621</v>
+        <v>6373.459867584752</v>
       </c>
       <c r="E56">
         <v>2830.894</v>
@@ -5828,45 +5828,45 @@
         <v>376.8</v>
       </c>
       <c r="M56">
-        <v>94.69413540000001</v>
+        <v>68.66138340000001</v>
       </c>
       <c r="N56">
-        <v>282.1058646</v>
+        <v>308.1386166</v>
       </c>
       <c r="O56">
-        <v>62.06329021200001</v>
+        <v>67.79049565199999</v>
       </c>
       <c r="P56">
-        <v>220.042574388</v>
+        <v>240.348120948</v>
       </c>
       <c r="Q56">
-        <v>257.242574388</v>
+        <v>277.548120948</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1995777757410571</v>
+        <v>0.2022957206978843</v>
       </c>
       <c r="T56">
         <v>1.920405199338997</v>
       </c>
       <c r="U56">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y56">
-        <v>3.979127095974309</v>
+        <v>5.487800876438501</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5877,13 +5877,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1039206202032899</v>
+        <v>0.1017932886824586</v>
       </c>
       <c r="C57">
-        <v>3320.787286486172</v>
+        <v>3321.045287877444</v>
       </c>
       <c r="D57">
-        <v>6383.542286486171</v>
+        <v>6383.800287877444</v>
       </c>
       <c r="E57">
         <v>2891.155</v>
@@ -5910,45 +5910,45 @@
         <v>376.8</v>
       </c>
       <c r="M57">
-        <v>96.44773050000001</v>
+        <v>69.9328905</v>
       </c>
       <c r="N57">
-        <v>280.3522695</v>
+        <v>306.8671095</v>
       </c>
       <c r="O57">
-        <v>61.67749929000001</v>
+        <v>67.51076409000001</v>
       </c>
       <c r="P57">
-        <v>218.67477021</v>
+        <v>239.35634541</v>
       </c>
       <c r="Q57">
-        <v>255.87477021</v>
+        <v>276.55634541</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2031927115628664</v>
+        <v>0.206091974849908</v>
       </c>
       <c r="T57">
         <v>1.958179851467015</v>
       </c>
       <c r="U57">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y57">
-        <v>3.906779330592958</v>
+        <v>5.388022678685075</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5959,13 +5959,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1037785435656935</v>
+        <v>0.1016432258438904</v>
       </c>
       <c r="C58">
-        <v>3270.835075280126</v>
+        <v>3271.158315677498</v>
       </c>
       <c r="D58">
-        <v>6393.851075280126</v>
+        <v>6394.174315677497</v>
       </c>
       <c r="E58">
         <v>2951.416</v>
@@ -5992,45 +5992,45 @@
         <v>376.8</v>
       </c>
       <c r="M58">
-        <v>98.2013256</v>
+        <v>71.20439760000001</v>
       </c>
       <c r="N58">
-        <v>278.5986744</v>
+        <v>305.5956024</v>
       </c>
       <c r="O58">
-        <v>61.291708368</v>
+        <v>67.231032528</v>
       </c>
       <c r="P58">
-        <v>217.306966032</v>
+        <v>238.364569872</v>
       </c>
       <c r="Q58">
-        <v>254.506966032</v>
+        <v>275.564569872</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2069719626493033</v>
+        <v>0.210060786008842</v>
       </c>
       <c r="T58">
         <v>1.997671533237216</v>
       </c>
       <c r="U58">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y58">
-        <v>3.837015413975226</v>
+        <v>5.29180798799427</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6041,13 +6041,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1036364669280971</v>
+        <v>0.1014931630053223</v>
       </c>
       <c r="C59">
-        <v>3220.916213276312</v>
+        <v>3221.305115093759</v>
       </c>
       <c r="D59">
-        <v>6404.193213276311</v>
+        <v>6404.582115093759</v>
       </c>
       <c r="E59">
         <v>3011.677</v>
@@ -6074,45 +6074,45 @@
         <v>376.8</v>
       </c>
       <c r="M59">
-        <v>99.9549207</v>
+        <v>72.4759047</v>
       </c>
       <c r="N59">
-        <v>276.8450793</v>
+        <v>304.3240953</v>
       </c>
       <c r="O59">
-        <v>60.905917446</v>
+        <v>66.95130096600001</v>
       </c>
       <c r="P59">
-        <v>215.939161854</v>
+        <v>237.372794334</v>
       </c>
       <c r="Q59">
-        <v>253.139161854</v>
+        <v>274.572794334</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2109269928560397</v>
+        <v>0.2142141930356333</v>
       </c>
       <c r="T59">
         <v>2.039000037415333</v>
       </c>
       <c r="U59">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y59">
-        <v>3.769699354080924</v>
+        <v>5.198969251362791</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1034943902905006</v>
+        <v>0.1013431001667541</v>
       </c>
       <c r="C60">
-        <v>3171.030862565236</v>
+        <v>3171.485851305302</v>
       </c>
       <c r="D60">
-        <v>6414.568862565236</v>
+        <v>6415.023851305301</v>
       </c>
       <c r="E60">
         <v>3071.938</v>
@@ -6156,45 +6156,45 @@
         <v>376.8</v>
       </c>
       <c r="M60">
-        <v>101.7085158</v>
+        <v>73.74741179999999</v>
       </c>
       <c r="N60">
-        <v>275.0914842</v>
+        <v>303.0525882</v>
       </c>
       <c r="O60">
-        <v>60.52012652400001</v>
+        <v>66.671569404</v>
       </c>
       <c r="P60">
-        <v>214.571357676</v>
+        <v>236.381018796</v>
       </c>
       <c r="Q60">
-        <v>251.771357676</v>
+        <v>273.581018796</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2150703578345253</v>
+        <v>0.2185653813494146</v>
       </c>
       <c r="T60">
         <v>2.082296565601931</v>
       </c>
       <c r="U60">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y60">
-        <v>3.704704537631254</v>
+        <v>5.109331850477226</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1033523136529042</v>
+        <v>0.101193037328186</v>
       </c>
       <c r="C61">
-        <v>3121.179186289528</v>
+        <v>3121.700690570156</v>
       </c>
       <c r="D61">
-        <v>6424.978186289527</v>
+        <v>6425.499690570156</v>
       </c>
       <c r="E61">
         <v>3132.199</v>
@@ -6238,45 +6238,45 @@
         <v>376.8</v>
       </c>
       <c r="M61">
-        <v>103.4621109</v>
+        <v>75.01891889999999</v>
       </c>
       <c r="N61">
-        <v>273.3378891</v>
+        <v>301.7810811000001</v>
       </c>
       <c r="O61">
-        <v>60.13433560200001</v>
+        <v>66.39183784200002</v>
       </c>
       <c r="P61">
-        <v>213.203553498</v>
+        <v>235.389243258</v>
       </c>
       <c r="Q61">
-        <v>250.403553498</v>
+        <v>272.589243258</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2194158381778152</v>
+        <v>0.2231288227516731</v>
       </c>
       <c r="T61">
         <v>2.127705119553729</v>
       </c>
       <c r="U61">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y61">
-        <v>3.641912935298521</v>
+        <v>5.022733005553884</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1032102370153078</v>
+        <v>0.1010429744896178</v>
       </c>
       <c r="C62">
-        <v>3071.361348652517</v>
+        <v>3071.949800234139</v>
       </c>
       <c r="D62">
-        <v>6435.421348652516</v>
+        <v>6436.009800234138</v>
       </c>
       <c r="E62">
         <v>3192.46</v>
@@ -6320,45 +6320,45 @@
         <v>376.8</v>
       </c>
       <c r="M62">
-        <v>105.215706</v>
+        <v>76.290426</v>
       </c>
       <c r="N62">
-        <v>271.584294</v>
+        <v>300.509574</v>
       </c>
       <c r="O62">
-        <v>59.74854468</v>
+        <v>66.11210628000001</v>
       </c>
       <c r="P62">
-        <v>211.83574932</v>
+        <v>234.39746772</v>
       </c>
       <c r="Q62">
-        <v>249.03574932</v>
+        <v>271.5974677200001</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2239785925382696</v>
+        <v>0.2279204362240445</v>
       </c>
       <c r="T62">
         <v>2.175384101203117</v>
       </c>
       <c r="U62">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y62">
-        <v>3.581214386376879</v>
+        <v>4.939020788794652</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1030681603777114</v>
+        <v>0.1008929116510497</v>
       </c>
       <c r="C63">
-        <v>3021.577514926854</v>
+        <v>3022.233348739761</v>
       </c>
       <c r="D63">
-        <v>6445.898514926853</v>
+        <v>6446.55434873976</v>
       </c>
       <c r="E63">
         <v>3252.721</v>
@@ -6402,45 +6402,45 @@
         <v>376.8</v>
       </c>
       <c r="M63">
-        <v>106.9693011</v>
+        <v>77.56193309999999</v>
       </c>
       <c r="N63">
-        <v>269.8306989</v>
+        <v>299.2380669</v>
       </c>
       <c r="O63">
-        <v>59.362753758</v>
+        <v>65.83237471800001</v>
       </c>
       <c r="P63">
-        <v>210.467945142</v>
+        <v>233.405692182</v>
       </c>
       <c r="Q63">
-        <v>247.667945142</v>
+        <v>270.605692182</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2287753343018242</v>
+        <v>0.2329577734642299</v>
       </c>
       <c r="T63">
         <v>2.225508158834526</v>
       </c>
       <c r="U63">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y63">
-        <v>3.522505953813323</v>
+        <v>4.858053234879986</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.102926083740115</v>
+        <v>0.1007428488124815</v>
       </c>
       <c r="C64">
-        <v>2971.827851463224</v>
+        <v>2972.551505635228</v>
       </c>
       <c r="D64">
-        <v>6456.409851463223</v>
+        <v>6457.133505635227</v>
       </c>
       <c r="E64">
         <v>3312.982</v>
@@ -6484,45 +6484,45 @@
         <v>376.8</v>
       </c>
       <c r="M64">
-        <v>108.7228962</v>
+        <v>78.8334402</v>
       </c>
       <c r="N64">
-        <v>268.0771038</v>
+        <v>297.9665598</v>
       </c>
       <c r="O64">
-        <v>58.97696283600001</v>
+        <v>65.552643156</v>
       </c>
       <c r="P64">
-        <v>209.100140964</v>
+        <v>232.413916644</v>
       </c>
       <c r="Q64">
-        <v>246.300140964</v>
+        <v>269.613916644</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2338245361581975</v>
+        <v>0.2382602337170566</v>
       </c>
       <c r="T64">
         <v>2.278270324762324</v>
       </c>
       <c r="U64">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y64">
-        <v>3.465691341655043</v>
+        <v>4.779697537543212</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1027840071025186</v>
+        <v>0.1005927859739134</v>
       </c>
       <c r="C65">
-        <v>2922.112525699168</v>
+        <v>2922.90444158353</v>
       </c>
       <c r="D65">
-        <v>6466.955525699167</v>
+        <v>6467.74744158353</v>
       </c>
       <c r="E65">
         <v>3373.243</v>
@@ -6566,45 +6566,45 @@
         <v>376.8</v>
       </c>
       <c r="M65">
-        <v>110.4764913</v>
+        <v>80.10494729999999</v>
       </c>
       <c r="N65">
-        <v>266.3235087</v>
+        <v>296.6950527</v>
       </c>
       <c r="O65">
-        <v>58.59117191400001</v>
+        <v>65.27291159400001</v>
       </c>
       <c r="P65">
-        <v>207.732336786</v>
+        <v>231.422141106</v>
       </c>
       <c r="Q65">
-        <v>244.932336786</v>
+        <v>268.622141106</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.239146667844645</v>
+        <v>0.2438493134430091</v>
       </c>
       <c r="T65">
         <v>2.333884499659192</v>
       </c>
       <c r="U65">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y65">
-        <v>3.41068036797798</v>
+        <v>4.703829322661574</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1026419304649222</v>
+        <v>0.1004427231353452</v>
       </c>
       <c r="C66">
-        <v>2872.431706167955</v>
+        <v>2873.292328371614</v>
       </c>
       <c r="D66">
-        <v>6477.535706167954</v>
+        <v>6478.396328371613</v>
       </c>
       <c r="E66">
         <v>3433.504</v>
@@ -6648,45 +6648,45 @@
         <v>376.8</v>
       </c>
       <c r="M66">
-        <v>112.2300864</v>
+        <v>81.3764544</v>
       </c>
       <c r="N66">
-        <v>264.5699136</v>
+        <v>295.4235456</v>
       </c>
       <c r="O66">
-        <v>58.205380992</v>
+        <v>64.993180032</v>
       </c>
       <c r="P66">
-        <v>206.364532608</v>
+        <v>230.430365568</v>
       </c>
       <c r="Q66">
-        <v>243.564532608</v>
+        <v>267.630365568</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2447644735136729</v>
+        <v>0.2497488975981811</v>
       </c>
       <c r="T66">
         <v>2.39258835093922</v>
       </c>
       <c r="U66">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y66">
-        <v>3.357388487228323</v>
+        <v>4.630331989494985</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1024998538273258</v>
+        <v>0.1002926602967771</v>
       </c>
       <c r="C67">
-        <v>2822.785562507573</v>
+        <v>2823.715338919652</v>
       </c>
       <c r="D67">
-        <v>6488.150562507572</v>
+        <v>6489.080338919652</v>
       </c>
       <c r="E67">
         <v>3493.765</v>
@@ -6730,45 +6730,45 @@
         <v>376.8</v>
       </c>
       <c r="M67">
-        <v>113.9836815</v>
+        <v>82.64796149999999</v>
       </c>
       <c r="N67">
-        <v>262.8163185</v>
+        <v>294.1520385</v>
       </c>
       <c r="O67">
-        <v>57.81959007</v>
+        <v>64.71344847</v>
       </c>
       <c r="P67">
-        <v>204.99672843</v>
+        <v>229.43859003</v>
       </c>
       <c r="Q67">
-        <v>242.19672843</v>
+        <v>266.63859003</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2507032966495024</v>
+        <v>0.2559856008479345</v>
       </c>
       <c r="T67">
         <v>2.454646708006678</v>
       </c>
       <c r="U67">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y67">
-        <v>3.30573635665558</v>
+        <v>4.559096112733525</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6779,13 +6779,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1023577771897294</v>
+        <v>0.1001425974582089</v>
       </c>
       <c r="C68">
-        <v>2773.174265469789</v>
+        <v>2774.173647290411</v>
       </c>
       <c r="D68">
-        <v>6498.800265469788</v>
+        <v>6499.799647290411</v>
       </c>
       <c r="E68">
         <v>3554.026</v>
@@ -6812,45 +6812,45 @@
         <v>376.8</v>
       </c>
       <c r="M68">
-        <v>115.7372766</v>
+        <v>83.9194686</v>
       </c>
       <c r="N68">
-        <v>261.0627234</v>
+        <v>292.8805314</v>
       </c>
       <c r="O68">
-        <v>57.43379914800001</v>
+        <v>64.43371690799999</v>
       </c>
       <c r="P68">
-        <v>203.628924252</v>
+        <v>228.446814492</v>
       </c>
       <c r="Q68">
-        <v>240.828924252</v>
+        <v>265.646814492</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2569914623227336</v>
+        <v>0.2625891689947321</v>
       </c>
       <c r="T68">
         <v>2.520355556666339</v>
       </c>
       <c r="U68">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y68">
-        <v>3.255649442160799</v>
+        <v>4.490018898904228</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.102215700552133</v>
+        <v>0.09999253461964072</v>
       </c>
       <c r="C69">
-        <v>2723.597986929307</v>
+        <v>2724.667428698686</v>
       </c>
       <c r="D69">
-        <v>6509.484986929307</v>
+        <v>6510.554428698686</v>
       </c>
       <c r="E69">
         <v>3614.287</v>
@@ -6894,45 +6894,45 @@
         <v>376.8</v>
       </c>
       <c r="M69">
-        <v>117.4908717</v>
+        <v>85.19097570000001</v>
       </c>
       <c r="N69">
-        <v>259.3091283</v>
+        <v>291.6090243</v>
       </c>
       <c r="O69">
-        <v>57.048008226</v>
+        <v>64.153985346</v>
       </c>
       <c r="P69">
-        <v>202.261120074</v>
+        <v>227.455038954</v>
       </c>
       <c r="Q69">
-        <v>239.461120074</v>
+        <v>264.655038954</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2636607289458577</v>
+        <v>0.2695929533928507</v>
       </c>
       <c r="T69">
         <v>2.590046759790222</v>
       </c>
       <c r="U69">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y69">
-        <v>3.20705765944198</v>
+        <v>4.423003691457897</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1020736239145366</v>
+        <v>0.09984247178107258</v>
       </c>
       <c r="C70">
-        <v>2674.056899893011</v>
+        <v>2675.196859520868</v>
       </c>
       <c r="D70">
-        <v>6520.20489989301</v>
+        <v>6521.344859520867</v>
       </c>
       <c r="E70">
         <v>3674.548</v>
@@ -6976,45 +6976,45 @@
         <v>376.8</v>
       </c>
       <c r="M70">
-        <v>119.2444668</v>
+        <v>86.46248279999999</v>
       </c>
       <c r="N70">
-        <v>257.5555332</v>
+        <v>290.3375172</v>
       </c>
       <c r="O70">
-        <v>56.662217304</v>
+        <v>63.87425378400001</v>
       </c>
       <c r="P70">
-        <v>200.893315896</v>
+        <v>226.463263416</v>
       </c>
       <c r="Q70">
-        <v>238.093315896</v>
+        <v>263.663263416</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.270746824732927</v>
+        <v>0.2770344743158519</v>
       </c>
       <c r="T70">
         <v>2.664093663109349</v>
       </c>
       <c r="U70">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y70">
-        <v>3.159895046803128</v>
+        <v>4.357959519524694</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7025,13 +7025,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1019315472769402</v>
+        <v>0.09969240894250442</v>
       </c>
       <c r="C71">
-        <v>2624.55117850931</v>
+        <v>2625.762117304572</v>
       </c>
       <c r="D71">
-        <v>6530.96017850931</v>
+        <v>6532.171117304571</v>
       </c>
       <c r="E71">
         <v>3734.809</v>
@@ -7058,45 +7058,45 @@
         <v>376.8</v>
       </c>
       <c r="M71">
-        <v>120.9980619</v>
+        <v>87.7339899</v>
       </c>
       <c r="N71">
-        <v>255.8019381</v>
+        <v>289.0660101</v>
       </c>
       <c r="O71">
-        <v>56.276426382</v>
+        <v>63.59452222200001</v>
       </c>
       <c r="P71">
-        <v>199.525511718</v>
+        <v>225.471487878</v>
       </c>
       <c r="Q71">
-        <v>236.725511718</v>
+        <v>262.671487878</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2782900879901298</v>
+        <v>0.2849560933629176</v>
       </c>
       <c r="T71">
         <v>2.74291778599745</v>
       </c>
       <c r="U71">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y71">
-        <v>3.114099466414676</v>
+        <v>4.294800685908394</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7107,13 +7107,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1017894706393438</v>
+        <v>0.1003613461039362</v>
       </c>
       <c r="C72">
-        <v>2575.080998077561</v>
+        <v>2517.515751480864</v>
       </c>
       <c r="D72">
-        <v>6541.750998077561</v>
+        <v>6484.185751480864</v>
       </c>
       <c r="E72">
         <v>3795.070000000001</v>
@@ -7140,37 +7140,37 @@
         <v>376.8</v>
       </c>
       <c r="M72">
-        <v>122.751657</v>
+        <v>95.332902</v>
       </c>
       <c r="N72">
-        <v>254.048343</v>
+        <v>281.467098</v>
       </c>
       <c r="O72">
-        <v>55.89063546</v>
+        <v>61.92276156</v>
       </c>
       <c r="P72">
-        <v>198.15770754</v>
+        <v>219.54433644</v>
       </c>
       <c r="Q72">
-        <v>235.35770754</v>
+        <v>256.74433644</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2863362354644794</v>
+        <v>0.2934058203464542</v>
       </c>
       <c r="T72">
         <v>2.826996850411425</v>
       </c>
       <c r="U72">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>3.069612331180181</v>
+        <v>3.952465435280676</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1016473940017474</v>
+        <v>0.1002229832653681</v>
       </c>
       <c r="C73">
-        <v>2525.646535057599</v>
+        <v>2467.122117400431</v>
       </c>
       <c r="D73">
-        <v>6552.577535057598</v>
+        <v>6494.05311740043</v>
       </c>
       <c r="E73">
         <v>3855.330999999999</v>
@@ -7222,37 +7222,37 @@
         <v>376.8</v>
       </c>
       <c r="M73">
-        <v>124.5052521</v>
+        <v>96.69480059999997</v>
       </c>
       <c r="N73">
-        <v>252.2947479</v>
+        <v>280.1051994000001</v>
       </c>
       <c r="O73">
-        <v>55.50484453800001</v>
+        <v>61.62314386800001</v>
       </c>
       <c r="P73">
-        <v>196.789903362</v>
+        <v>218.4820555320001</v>
       </c>
       <c r="Q73">
-        <v>233.989903362</v>
+        <v>255.682055532</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.294937289661198</v>
+        <v>0.302438287121959</v>
       </c>
       <c r="T73">
         <v>2.916874470991881</v>
       </c>
       <c r="U73">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>3.026378354684686</v>
+        <v>3.896796908023203</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.103639397364151</v>
+        <v>0.1000846204267999</v>
       </c>
       <c r="C74">
-        <v>2316.78756109686</v>
+        <v>2416.758560589725</v>
       </c>
       <c r="D74">
-        <v>6403.979561096859</v>
+        <v>6503.950560589724</v>
       </c>
       <c r="E74">
         <v>3915.592</v>
@@ -7304,45 +7304,45 @@
         <v>376.8</v>
       </c>
       <c r="M74">
-        <v>142.7462568</v>
+        <v>98.05669919999998</v>
       </c>
       <c r="N74">
-        <v>234.0537432</v>
+        <v>278.7433008</v>
       </c>
       <c r="O74">
-        <v>51.49182350400001</v>
+        <v>61.32352617600001</v>
       </c>
       <c r="P74">
-        <v>182.561919696</v>
+        <v>217.419774624</v>
       </c>
       <c r="Q74">
-        <v>219.761919696</v>
+        <v>254.619774624</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3041527048719679</v>
+        <v>0.3121159300957141</v>
       </c>
       <c r="T74">
         <v>3.013171921613798</v>
       </c>
       <c r="U74">
-        <v>0.0329</v>
+        <v>0.0226</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.025662</v>
+        <v>0.017628</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y74">
-        <v>2.639648901812745</v>
+        <v>3.842674728745102</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1035269607265546</v>
+        <v>0.09994625758823178</v>
       </c>
       <c r="C75">
-        <v>2264.734322121777</v>
+        <v>2366.425218778969</v>
       </c>
       <c r="D75">
-        <v>6412.187322121777</v>
+        <v>6513.878218778968</v>
       </c>
       <c r="E75">
         <v>3975.853</v>
@@ -7386,45 +7386,45 @@
         <v>376.8</v>
       </c>
       <c r="M75">
-        <v>144.7288437</v>
+        <v>99.41859779999999</v>
       </c>
       <c r="N75">
-        <v>232.0711563</v>
+        <v>277.3814022</v>
       </c>
       <c r="O75">
-        <v>51.055654386</v>
+        <v>61.023908484</v>
       </c>
       <c r="P75">
-        <v>181.015501914</v>
+        <v>216.357493716</v>
       </c>
       <c r="Q75">
-        <v>218.215501914</v>
+        <v>253.557493716</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3140507434316837</v>
+        <v>0.3225104355119696</v>
       </c>
       <c r="T75">
         <v>3.116602516726227</v>
       </c>
       <c r="U75">
-        <v>0.0329</v>
+        <v>0.0226</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.025662</v>
+        <v>0.017628</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y75">
-        <v>2.60348932781531</v>
+        <v>3.790035348899279</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7435,13 +7435,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1034145240889582</v>
+        <v>0.09980789474966363</v>
       </c>
       <c r="C76">
-        <v>2212.702149358295</v>
+        <v>2316.122230540599</v>
       </c>
       <c r="D76">
-        <v>6420.416149358294</v>
+        <v>6523.836230540598</v>
       </c>
       <c r="E76">
         <v>4036.114</v>
@@ -7468,45 +7468,45 @@
         <v>376.8</v>
       </c>
       <c r="M76">
-        <v>146.7114306</v>
+        <v>100.7804964</v>
       </c>
       <c r="N76">
-        <v>230.0885694</v>
+        <v>276.0195036</v>
       </c>
       <c r="O76">
-        <v>50.61948526800001</v>
+        <v>60.72429079200001</v>
       </c>
       <c r="P76">
-        <v>179.469084132</v>
+        <v>215.295212808</v>
       </c>
       <c r="Q76">
-        <v>216.669084132</v>
+        <v>252.495212808</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3247101695729162</v>
+        <v>0.3337045182679371</v>
       </c>
       <c r="T76">
         <v>3.22798931146269</v>
       </c>
       <c r="U76">
-        <v>0.0329</v>
+        <v>0.0226</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.025662</v>
+        <v>0.017628</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y76">
-        <v>2.568307039601589</v>
+        <v>3.738818654995235</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7517,13 +7517,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1033020874513618</v>
+        <v>0.09966953191109548</v>
       </c>
       <c r="C77">
-        <v>2160.691124014096</v>
+        <v>2265.849735295713</v>
       </c>
       <c r="D77">
-        <v>6428.666124014096</v>
+        <v>6533.824735295712</v>
       </c>
       <c r="E77">
         <v>4096.375</v>
@@ -7550,45 +7550,45 @@
         <v>376.8</v>
       </c>
       <c r="M77">
-        <v>148.6940175</v>
+        <v>102.142395</v>
       </c>
       <c r="N77">
-        <v>228.1059825</v>
+        <v>274.657605</v>
       </c>
       <c r="O77">
-        <v>50.18331615</v>
+        <v>60.4246731</v>
       </c>
       <c r="P77">
-        <v>177.92266635</v>
+        <v>214.2329319</v>
       </c>
       <c r="Q77">
-        <v>215.12266635</v>
+        <v>251.4329319</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3362223498054472</v>
+        <v>0.3457941276443819</v>
       </c>
       <c r="T77">
         <v>3.34828704977807</v>
       </c>
       <c r="U77">
-        <v>0.0329</v>
+        <v>0.0226</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.025662</v>
+        <v>0.017628</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y77">
-        <v>2.534062945740235</v>
+        <v>3.688967739595297</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7599,13 +7599,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1031896508137654</v>
+        <v>0.09953116907252732</v>
       </c>
       <c r="C78">
-        <v>2108.701327714801</v>
+        <v>2215.607873320577</v>
       </c>
       <c r="D78">
-        <v>6436.9373277148</v>
+        <v>6543.843873320576</v>
       </c>
       <c r="E78">
         <v>4156.636</v>
@@ -7632,45 +7632,45 @@
         <v>376.8</v>
       </c>
       <c r="M78">
-        <v>150.6766044</v>
+        <v>103.5042936</v>
       </c>
       <c r="N78">
-        <v>226.1233956</v>
+        <v>273.2957064</v>
       </c>
       <c r="O78">
-        <v>49.74714703200001</v>
+        <v>60.12505540800001</v>
       </c>
       <c r="P78">
-        <v>176.376248568</v>
+        <v>213.170650992</v>
       </c>
       <c r="Q78">
-        <v>213.576248568</v>
+        <v>250.370650992</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3486938783906892</v>
+        <v>0.3588912044688639</v>
       </c>
       <c r="T78">
         <v>3.478609599619732</v>
       </c>
       <c r="U78">
-        <v>0.0329</v>
+        <v>0.0226</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.025662</v>
+        <v>0.017628</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y78">
-        <v>2.500720012243653</v>
+        <v>3.640428690390097</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7681,13 +7681,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1633217437406312</v>
+        <v>0.09939280623395916</v>
       </c>
       <c r="C79">
-        <v>-575.3526382569676</v>
+        <v>2165.396785753187</v>
       </c>
       <c r="D79">
-        <v>3813.144361743032</v>
+        <v>6553.893785753186</v>
       </c>
       <c r="E79">
         <v>4216.897</v>
@@ -7714,45 +7714,45 @@
         <v>376.8</v>
       </c>
       <c r="M79">
-        <v>535.9312034999999</v>
+        <v>104.8661922</v>
       </c>
       <c r="N79">
-        <v>-159.1312034999999</v>
+        <v>271.9338078</v>
       </c>
       <c r="O79">
-        <v>-35.00886476999998</v>
+        <v>59.825437716</v>
       </c>
       <c r="P79">
-        <v>-124.1223387299999</v>
+        <v>212.108370084</v>
       </c>
       <c r="Q79">
-        <v>-86.92233872999995</v>
+        <v>249.308370084</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3832300193112266</v>
+        <v>0.3731271575389529</v>
       </c>
       <c r="T79">
-        <v>3.839498637053474</v>
+        <v>3.620264545099798</v>
       </c>
       <c r="U79">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V79">
-        <v>0.154676569415313</v>
+        <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.09763485623253133</v>
+        <v>0.017628</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y79">
-        <v>0.7030753155241503</v>
+        <v>3.593150395709706</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1643187437406312</v>
+        <v>0.09925444339539102</v>
       </c>
       <c r="C80">
-        <v>-661.2111139217022</v>
+        <v>2115.216614599905</v>
       </c>
       <c r="D80">
-        <v>3787.546886078298</v>
+        <v>6563.974614599905</v>
       </c>
       <c r="E80">
         <v>4277.158</v>
@@ -7796,45 +7796,45 @@
         <v>376.8</v>
       </c>
       <c r="M80">
-        <v>542.891349</v>
+        <v>106.2280908</v>
       </c>
       <c r="N80">
-        <v>-166.091349</v>
+        <v>270.5719092</v>
       </c>
       <c r="O80">
-        <v>-36.54009678</v>
+        <v>59.525820024</v>
       </c>
       <c r="P80">
-        <v>-129.55125222</v>
+        <v>211.046089176</v>
       </c>
       <c r="Q80">
-        <v>-92.35125221999999</v>
+        <v>248.246089176</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3999313838253732</v>
+        <v>0.3886572881608683</v>
       </c>
       <c r="T80">
-        <v>4.014021302374086</v>
+        <v>3.774797212896235</v>
       </c>
       <c r="U80">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V80">
-        <v>0.1526935364740911</v>
+        <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.09786389653724246</v>
+        <v>0.017628</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y80">
-        <v>0.6940615294276866</v>
+        <v>3.547084364995478</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7845,13 +7845,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1653157437406312</v>
+        <v>0.09911608055682286</v>
       </c>
       <c r="C81">
-        <v>-746.728211714124</v>
+        <v>2065.067502742151</v>
       </c>
       <c r="D81">
-        <v>3762.290788285876</v>
+        <v>6574.086502742151</v>
       </c>
       <c r="E81">
         <v>4337.419</v>
@@ -7878,45 +7878,45 @@
         <v>376.8</v>
       </c>
       <c r="M81">
-        <v>549.8514944999999</v>
+        <v>107.5899894</v>
       </c>
       <c r="N81">
-        <v>-173.0514944999999</v>
+        <v>269.2100106</v>
       </c>
       <c r="O81">
-        <v>-38.07132878999999</v>
+        <v>59.22620233200001</v>
       </c>
       <c r="P81">
-        <v>-134.9801657099999</v>
+        <v>209.983808268</v>
       </c>
       <c r="Q81">
-        <v>-97.78016570999995</v>
+        <v>247.183808268</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.4182233544837244</v>
+        <v>0.4056664788420137</v>
       </c>
       <c r="T81">
-        <v>4.20516517391571</v>
+        <v>3.944047277625666</v>
       </c>
       <c r="U81">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V81">
-        <v>0.1507607068984697</v>
+        <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.09808713835322674</v>
+        <v>0.017628</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y81">
-        <v>0.6852759404475894</v>
+        <v>3.502184562906929</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7927,13 +7927,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1663127437406312</v>
+        <v>0.09897771771825473</v>
       </c>
       <c r="C82">
-        <v>-831.9107155197075</v>
+        <v>2014.949593943129</v>
       </c>
       <c r="D82">
-        <v>3737.369284480293</v>
+        <v>6584.229593943129</v>
       </c>
       <c r="E82">
         <v>4397.68</v>
@@ -7960,45 +7960,45 @@
         <v>376.8</v>
       </c>
       <c r="M82">
-        <v>556.81164</v>
+        <v>108.951888</v>
       </c>
       <c r="N82">
-        <v>-180.01164</v>
+        <v>267.848112</v>
       </c>
       <c r="O82">
-        <v>-39.6025608</v>
+        <v>58.92658464</v>
       </c>
       <c r="P82">
-        <v>-140.4090792</v>
+        <v>208.92152736</v>
       </c>
       <c r="Q82">
-        <v>-103.2090792</v>
+        <v>246.12152736</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4383445222079105</v>
+        <v>0.4243765885912737</v>
       </c>
       <c r="T82">
-        <v>4.415423432611496</v>
+        <v>4.13022234882804</v>
       </c>
       <c r="U82">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V82">
-        <v>0.1488761980622388</v>
+        <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.0983047991238114</v>
+        <v>0.017628</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y82">
-        <v>0.6767099911919945</v>
+        <v>3.458407255870592</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1673097437406312</v>
+        <v>0.09883935487968654</v>
       </c>
       <c r="C83">
-        <v>-916.7652306602631</v>
+        <v>1964.863032854676</v>
       </c>
       <c r="D83">
-        <v>3712.775769339737</v>
+        <v>6594.404032854675</v>
       </c>
       <c r="E83">
         <v>4457.941</v>
@@ -8042,45 +8042,45 @@
         <v>376.8</v>
       </c>
       <c r="M83">
-        <v>563.7717855</v>
+        <v>110.3137866</v>
       </c>
       <c r="N83">
-        <v>-186.9717855</v>
+        <v>266.4862134</v>
       </c>
       <c r="O83">
-        <v>-41.13379280999999</v>
+        <v>58.626966948</v>
       </c>
       <c r="P83">
-        <v>-145.83799269</v>
+        <v>207.859246452</v>
       </c>
       <c r="Q83">
-        <v>-108.63799269</v>
+        <v>245.059246452</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4605837075872743</v>
+        <v>0.4450561835772977</v>
       </c>
       <c r="T83">
-        <v>4.647814139591048</v>
+        <v>4.335994795946452</v>
       </c>
       <c r="U83">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V83">
-        <v>0.147038220308384</v>
+        <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.09851708555438164</v>
+        <v>0.017628</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y83">
-        <v>0.6683555468562909</v>
+        <v>3.415710869995646</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8091,13 +8091,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1683067437406312</v>
+        <v>0.09870099204111839</v>
       </c>
       <c r="C84">
-        <v>-1001.298189730657</v>
+        <v>1914.807965024102</v>
       </c>
       <c r="D84">
-        <v>3688.503810269343</v>
+        <v>6604.609965024101</v>
       </c>
       <c r="E84">
         <v>4518.202</v>
@@ -8124,45 +8124,45 @@
         <v>376.8</v>
       </c>
       <c r="M84">
-        <v>570.7319309999999</v>
+        <v>111.6756852</v>
       </c>
       <c r="N84">
-        <v>-193.9319309999999</v>
+        <v>265.1243148</v>
       </c>
       <c r="O84">
-        <v>-42.66502481999998</v>
+        <v>58.32734925600001</v>
       </c>
       <c r="P84">
-        <v>-151.2669061799999</v>
+        <v>206.796965544</v>
       </c>
       <c r="Q84">
-        <v>-114.0669061799999</v>
+        <v>243.996965544</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.4852939135643451</v>
+        <v>0.4680335113395467</v>
       </c>
       <c r="T84">
-        <v>4.906026036234996</v>
+        <v>4.564630848300244</v>
       </c>
       <c r="U84">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V84">
-        <v>0.145245071280233</v>
+        <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.09872419426713308</v>
+        <v>0.017628</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y84">
-        <v>0.6602048694556044</v>
+        <v>3.374055859385943</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8173,13 +8173,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1693037437406313</v>
+        <v>0.09856262920255025</v>
       </c>
       <c r="C85">
-        <v>-1085.515858208087</v>
+        <v>1864.784536901157</v>
       </c>
       <c r="D85">
-        <v>3664.547141791913</v>
+        <v>6614.847536901157</v>
       </c>
       <c r="E85">
         <v>4578.463</v>
@@ -8206,45 +8206,45 @@
         <v>376.8</v>
       </c>
       <c r="M85">
-        <v>577.6920764999999</v>
+        <v>113.0375838</v>
       </c>
       <c r="N85">
-        <v>-200.8920764999999</v>
+        <v>263.7624162</v>
       </c>
       <c r="O85">
-        <v>-44.19625682999997</v>
+        <v>58.02773156400001</v>
       </c>
       <c r="P85">
-        <v>-156.6958196699999</v>
+        <v>205.734684636</v>
       </c>
       <c r="Q85">
-        <v>-119.4958196699999</v>
+        <v>242.934684636</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.5129112025975421</v>
+        <v>0.4937140541326487</v>
       </c>
       <c r="T85">
-        <v>5.19461580307235</v>
+        <v>4.820165259754484</v>
       </c>
       <c r="U85">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V85">
-        <v>0.1434951306623989</v>
+        <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.09892631240849292</v>
+        <v>0.017628</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y85">
-        <v>0.6522505939199948</v>
+        <v>3.333404583971655</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8255,13 +8255,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1989387985591773</v>
+        <v>0.0984242663639821</v>
       </c>
       <c r="C86">
-        <v>-1738.764560904291</v>
+        <v>1814.792895845033</v>
       </c>
       <c r="D86">
-        <v>3071.559439095709</v>
+        <v>6625.116895845032</v>
       </c>
       <c r="E86">
         <v>4638.723999999999</v>
@@ -8288,45 +8288,45 @@
         <v>376.8</v>
       </c>
       <c r="M86">
-        <v>742.5842507999998</v>
+        <v>114.3994824</v>
       </c>
       <c r="N86">
-        <v>-365.7842507999998</v>
+        <v>262.4005176000001</v>
       </c>
       <c r="O86">
-        <v>-80.47253517599997</v>
+        <v>57.72811387200002</v>
       </c>
       <c r="P86">
-        <v>-285.3117156239999</v>
+        <v>204.672403728</v>
       </c>
       <c r="Q86">
-        <v>-248.1117156239999</v>
+        <v>241.872403728</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.559168495375801</v>
+        <v>0.522604664774888</v>
       </c>
       <c r="T86">
-        <v>5.677986249800795</v>
+        <v>5.107641472640499</v>
       </c>
       <c r="U86">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V86">
-        <v>0.1116317776881136</v>
+        <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.1303236182131537</v>
+        <v>0.017628</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y86">
-        <v>0.5074171713096074</v>
+        <v>3.293721196067231</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8337,13 +8337,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2002477985591773</v>
+        <v>0.09828590352541394</v>
       </c>
       <c r="C87">
-        <v>-1820.82398483336</v>
+        <v>1764.833190131415</v>
       </c>
       <c r="D87">
-        <v>3049.76101516664</v>
+        <v>6635.418190131414</v>
       </c>
       <c r="E87">
         <v>4698.985</v>
@@ -8370,45 +8370,45 @@
         <v>376.8</v>
       </c>
       <c r="M87">
-        <v>751.4245394999999</v>
+        <v>115.761381</v>
       </c>
       <c r="N87">
-        <v>-374.6245394999999</v>
+        <v>261.038619</v>
       </c>
       <c r="O87">
-        <v>-82.41739868999998</v>
+        <v>57.42849618000001</v>
       </c>
       <c r="P87">
-        <v>-292.2071408099999</v>
+        <v>203.61012282</v>
       </c>
       <c r="Q87">
-        <v>-255.00714081</v>
+        <v>240.81012282</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.5953930617341878</v>
+        <v>0.5553473568360928</v>
       </c>
       <c r="T87">
-        <v>6.056518666454181</v>
+        <v>5.433447847244652</v>
       </c>
       <c r="U87">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V87">
-        <v>0.1103184626564888</v>
+        <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.1305162815282931</v>
+        <v>0.017628</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y87">
-        <v>0.5014475575294943</v>
+        <v>3.254971534937028</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2015567985591773</v>
+        <v>0.09814754068684577</v>
       </c>
       <c r="C88">
-        <v>-1902.576188384552</v>
+        <v>1714.905568959643</v>
       </c>
       <c r="D88">
-        <v>3028.269811615447</v>
+        <v>6645.751568959641</v>
       </c>
       <c r="E88">
         <v>4759.245999999999</v>
@@ -8452,45 +8452,45 @@
         <v>376.8</v>
       </c>
       <c r="M88">
-        <v>760.2648281999998</v>
+        <v>117.1232796</v>
       </c>
       <c r="N88">
-        <v>-383.4648281999998</v>
+        <v>259.6767204</v>
       </c>
       <c r="O88">
-        <v>-84.36226220399995</v>
+        <v>57.12887848800001</v>
       </c>
       <c r="P88">
-        <v>-299.1025659959998</v>
+        <v>202.547841912</v>
       </c>
       <c r="Q88">
-        <v>-261.9025659959999</v>
+        <v>239.747841912</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6367925661437727</v>
+        <v>0.5927675763346126</v>
       </c>
       <c r="T88">
-        <v>6.489127142629481</v>
+        <v>5.805797989649399</v>
       </c>
       <c r="U88">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V88">
-        <v>0.1090356898349017</v>
+        <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.1307044643012199</v>
+        <v>0.017628</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y88">
-        <v>0.4956167719768259</v>
+        <v>3.21712302871683</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8501,13 +8501,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2028657985591773</v>
+        <v>0.09800917784827762</v>
       </c>
       <c r="C89">
-        <v>-1984.027620916508</v>
+        <v>1665.01018245989</v>
       </c>
       <c r="D89">
-        <v>3007.079379083492</v>
+        <v>6656.117182459889</v>
       </c>
       <c r="E89">
         <v>4819.507</v>
@@ -8534,45 +8534,45 @@
         <v>376.8</v>
       </c>
       <c r="M89">
-        <v>769.1051168999999</v>
+        <v>118.4851782</v>
       </c>
       <c r="N89">
-        <v>-392.3051168999999</v>
+        <v>258.3148218</v>
       </c>
       <c r="O89">
-        <v>-86.30712571799997</v>
+        <v>56.829260796</v>
       </c>
       <c r="P89">
-        <v>-305.9979911819999</v>
+        <v>201.485561004</v>
       </c>
       <c r="Q89">
-        <v>-268.7979911819999</v>
+        <v>238.685561004</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.6845612250779091</v>
+        <v>0.6359447526790586</v>
       </c>
       <c r="T89">
-        <v>6.988290768985594</v>
+        <v>6.235432769347184</v>
       </c>
       <c r="U89">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V89">
-        <v>0.1077824060436959</v>
+        <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.1308883210333898</v>
+        <v>0.017628</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y89">
-        <v>0.4899200274713451</v>
+        <v>3.180144603099395</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2041747985591773</v>
+        <v>0.09787081500970946</v>
       </c>
       <c r="C90">
-        <v>-2065.184552523749</v>
+        <v>1615.147181700458</v>
       </c>
       <c r="D90">
-        <v>2986.183447476251</v>
+        <v>6666.515181700457</v>
       </c>
       <c r="E90">
         <v>4879.768</v>
@@ -8616,45 +8616,45 @@
         <v>376.8</v>
       </c>
       <c r="M90">
-        <v>777.9454056</v>
+        <v>119.8470768</v>
       </c>
       <c r="N90">
-        <v>-401.1454055999999</v>
+        <v>256.9529232</v>
       </c>
       <c r="O90">
-        <v>-88.25198923199999</v>
+        <v>56.52964310400001</v>
       </c>
       <c r="P90">
-        <v>-312.893416368</v>
+        <v>200.423280096</v>
       </c>
       <c r="Q90">
-        <v>-275.693416368</v>
+        <v>237.623280096</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.7402913271677349</v>
+        <v>0.6863181250809122</v>
       </c>
       <c r="T90">
-        <v>7.570648333067729</v>
+        <v>6.736673345661267</v>
       </c>
       <c r="U90">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V90">
-        <v>0.1065576059750175</v>
+        <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.1310679992034649</v>
+        <v>0.017628</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y90">
-        <v>0.484352754431898</v>
+        <v>3.144006596245993</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2054837985591773</v>
+        <v>0.09773245217114129</v>
       </c>
       <c r="C91">
-        <v>-2146.053080222151</v>
+        <v>1565.316718695099</v>
       </c>
       <c r="D91">
-        <v>2965.575919777849</v>
+        <v>6676.945718695098</v>
       </c>
       <c r="E91">
         <v>4940.029</v>
@@ -8698,45 +8698,45 @@
         <v>376.8</v>
       </c>
       <c r="M91">
-        <v>786.7856942999999</v>
+        <v>121.2089754</v>
       </c>
       <c r="N91">
-        <v>-409.9856942999999</v>
+        <v>255.5910246</v>
       </c>
       <c r="O91">
-        <v>-90.19685274599998</v>
+        <v>56.230025412</v>
       </c>
       <c r="P91">
-        <v>-319.7888415539999</v>
+        <v>199.360999188</v>
       </c>
       <c r="Q91">
-        <v>-282.5888415539999</v>
+        <v>236.560999188</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.8061541750920745</v>
+        <v>0.745850292464921</v>
       </c>
       <c r="T91">
-        <v>8.258889090619341</v>
+        <v>7.329048572214274</v>
       </c>
       <c r="U91">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V91">
-        <v>0.1053603295033881</v>
+        <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.131243639661853</v>
+        <v>0.017628</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y91">
-        <v>0.4789105886517643</v>
+        <v>3.10868067943424</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8747,13 +8747,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2067927985591773</v>
+        <v>0.09759408933257314</v>
       </c>
       <c r="C92">
-        <v>-2226.639133880059</v>
+        <v>1515.518946410425</v>
       </c>
       <c r="D92">
-        <v>2945.250866119941</v>
+        <v>6687.408946410425</v>
       </c>
       <c r="E92">
         <v>5000.29</v>
@@ -8780,45 +8780,45 @@
         <v>376.8</v>
       </c>
       <c r="M92">
-        <v>795.6259829999999</v>
+        <v>122.570874</v>
       </c>
       <c r="N92">
-        <v>-418.8259829999999</v>
+        <v>254.229126</v>
       </c>
       <c r="O92">
-        <v>-92.14171625999998</v>
+        <v>55.93040772000001</v>
       </c>
       <c r="P92">
-        <v>-326.6842667399999</v>
+        <v>198.29871828</v>
       </c>
       <c r="Q92">
-        <v>-289.4842667399999</v>
+        <v>235.49871828</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.885189592601282</v>
+        <v>0.8172888933257316</v>
       </c>
       <c r="T92">
-        <v>9.084777999681275</v>
+        <v>8.039898844077882</v>
       </c>
       <c r="U92">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V92">
-        <v>0.1041896591755727</v>
+        <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.1314153769989435</v>
+        <v>0.017628</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y92">
-        <v>0.4735893598889669</v>
+        <v>3.074139782996081</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8829,13 +8829,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2081017985591773</v>
+        <v>0.097455726494005</v>
       </c>
       <c r="C93">
-        <v>-2306.948481907154</v>
+        <v>1465.754018773397</v>
       </c>
       <c r="D93">
-        <v>2925.202518092845</v>
+        <v>6697.905018773396</v>
       </c>
       <c r="E93">
         <v>5060.550999999999</v>
@@ -8862,45 +8862,45 @@
         <v>376.8</v>
       </c>
       <c r="M93">
-        <v>804.4662716999999</v>
+        <v>123.9327726</v>
       </c>
       <c r="N93">
-        <v>-427.6662716999999</v>
+        <v>252.8672274</v>
       </c>
       <c r="O93">
-        <v>-94.08657977399997</v>
+        <v>55.63079002800001</v>
       </c>
       <c r="P93">
-        <v>-333.5796919259999</v>
+        <v>197.236437372</v>
       </c>
       <c r="Q93">
-        <v>-296.3796919259999</v>
+        <v>234.436437372</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.9817884362236466</v>
+        <v>0.9046027388222782</v>
       </c>
       <c r="T93">
-        <v>10.09419777742364</v>
+        <v>8.908715843022295</v>
       </c>
       <c r="U93">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V93">
-        <v>0.103044717865951</v>
+        <v>0.22</v>
       </c>
       <c r="W93">
-        <v>0.131583339889065</v>
+        <v>0.017628</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y93">
-        <v>0.4683850812088683</v>
+        <v>3.040358027138982</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2094107985591773</v>
+        <v>0.09731736365543685</v>
       </c>
       <c r="C94">
-        <v>-2386.986736712564</v>
+        <v>1416.022090678859</v>
       </c>
       <c r="D94">
-        <v>2905.425263287435</v>
+        <v>6708.434090678858</v>
       </c>
       <c r="E94">
         <v>5120.812</v>
@@ -8944,45 +8944,45 @@
         <v>376.8</v>
       </c>
       <c r="M94">
-        <v>813.3065604</v>
+        <v>125.2946712</v>
       </c>
       <c r="N94">
-        <v>-436.5065604</v>
+        <v>251.5053288</v>
       </c>
       <c r="O94">
-        <v>-96.03144328799999</v>
+        <v>55.33117233600001</v>
       </c>
       <c r="P94">
-        <v>-340.475117112</v>
+        <v>196.174156464</v>
       </c>
       <c r="Q94">
-        <v>-303.275117112</v>
+        <v>233.374156464</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.102536990751603</v>
+        <v>1.013745045692961</v>
       </c>
       <c r="T94">
-        <v>11.3559724996016</v>
+        <v>9.994737091702808</v>
       </c>
       <c r="U94">
-        <v>0.1467</v>
+        <v>0.0226</v>
       </c>
       <c r="V94">
-        <v>0.1019246665847994</v>
+        <v>0.22</v>
       </c>
       <c r="W94">
-        <v>0.1317476514120099</v>
+        <v>0.017628</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y94">
-        <v>0.4632939390218154</v>
+        <v>3.007310657278775</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2107197985591773</v>
+        <v>0.09993552081686868</v>
       </c>
       <c r="C95">
-        <v>-2466.759359943021</v>
+        <v>1161.976859086121</v>
       </c>
       <c r="D95">
-        <v>2885.913640056979</v>
+        <v>6514.649859086121</v>
       </c>
       <c r="E95">
         <v>5181.073</v>
@@ -9026,45 +9026,45 @@
         <v>376.8</v>
       </c>
       <c r="M95">
-        <v>822.1468491000001</v>
+        <v>147.9528072</v>
       </c>
       <c r="N95">
-        <v>-445.3468491</v>
+        <v>228.8471928</v>
       </c>
       <c r="O95">
-        <v>-97.97630680200001</v>
+        <v>50.346382416</v>
       </c>
       <c r="P95">
-        <v>-347.370542298</v>
+        <v>178.500810384</v>
       </c>
       <c r="Q95">
-        <v>-310.170542298</v>
+        <v>215.700810384</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.257785132287546</v>
+        <v>1.154070868812411</v>
       </c>
       <c r="T95">
-        <v>12.97825428525897</v>
+        <v>11.39105012572061</v>
       </c>
       <c r="U95">
-        <v>0.1467</v>
+        <v>0.0264</v>
       </c>
       <c r="V95">
-        <v>0.1008287024279736</v>
+        <v>0.22</v>
       </c>
       <c r="W95">
-        <v>0.1319084293538163</v>
+        <v>0.020592</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y95">
-        <v>0.4583122837635163</v>
+        <v>2.546758031367721</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9075,13 +9075,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2120287985591773</v>
+        <v>0.09982679797830053</v>
       </c>
       <c r="C96">
-        <v>-2546.271667511392</v>
+        <v>1109.539964663426</v>
       </c>
       <c r="D96">
-        <v>2866.662332488608</v>
+        <v>6522.473964663425</v>
       </c>
       <c r="E96">
         <v>5241.334</v>
@@ -9108,45 +9108,45 @@
         <v>376.8</v>
       </c>
       <c r="M96">
-        <v>830.9871377999999</v>
+        <v>149.5436976</v>
       </c>
       <c r="N96">
-        <v>-454.1871377999999</v>
+        <v>227.2563024</v>
       </c>
       <c r="O96">
-        <v>-99.92117031599997</v>
+        <v>49.996386528</v>
       </c>
       <c r="P96">
-        <v>-354.2659674839999</v>
+        <v>177.259915872</v>
       </c>
       <c r="Q96">
-        <v>-317.0659674839999</v>
+        <v>214.459915872</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.464782654335471</v>
+        <v>1.34117196630501</v>
       </c>
       <c r="T96">
-        <v>15.14129666613547</v>
+        <v>13.25280083774435</v>
       </c>
       <c r="U96">
-        <v>0.1467</v>
+        <v>0.0264</v>
       </c>
       <c r="V96">
-        <v>0.09975605665746323</v>
+        <v>0.22</v>
       </c>
       <c r="W96">
-        <v>0.1320657864883501</v>
+        <v>0.020592</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y96">
-        <v>0.4534366211702875</v>
+        <v>2.519664860821256</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2133377985591773</v>
+        <v>0.2107605027074819</v>
       </c>
       <c r="C97">
-        <v>-2625.528834425257</v>
+        <v>-2542.304453304852</v>
       </c>
       <c r="D97">
-        <v>2847.666165574743</v>
+        <v>2930.890546695148</v>
       </c>
       <c r="E97">
         <v>5301.595</v>
@@ -9190,37 +9190,37 @@
         <v>376.8</v>
       </c>
       <c r="M97">
-        <v>839.8274265</v>
+        <v>802.616259</v>
       </c>
       <c r="N97">
-        <v>-463.0274265</v>
+        <v>-425.816259</v>
       </c>
       <c r="O97">
-        <v>-101.86603383</v>
+        <v>-93.67957698000001</v>
       </c>
       <c r="P97">
-        <v>-361.16139267</v>
+        <v>-332.13668202</v>
       </c>
       <c r="Q97">
-        <v>-323.96139267</v>
+        <v>-294.93668202</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.754579185202566</v>
+        <v>1.826533268168657</v>
       </c>
       <c r="T97">
-        <v>18.16955599936257</v>
+        <v>18.08239169233116</v>
       </c>
       <c r="U97">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V97">
-        <v>0.09870599290317414</v>
+        <v>0.1032822336583142</v>
       </c>
       <c r="W97">
-        <v>0.1322198308411043</v>
+        <v>0.1257198308411044</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.448663604105337</v>
+        <v>0.4694646984468825</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2146467985591773</v>
+        <v>0.2120695027074818</v>
       </c>
       <c r="C98">
-        <v>-2704.535899424779</v>
+        <v>-2621.486127638992</v>
       </c>
       <c r="D98">
-        <v>2828.920100575221</v>
+        <v>2911.969872361007</v>
       </c>
       <c r="E98">
         <v>5361.856</v>
@@ -9272,37 +9272,37 @@
         <v>376.8</v>
       </c>
       <c r="M98">
-        <v>848.6677152</v>
+        <v>811.0648511999999</v>
       </c>
       <c r="N98">
-        <v>-471.8677152</v>
+        <v>-434.2648511999999</v>
       </c>
       <c r="O98">
-        <v>-103.810897344</v>
+        <v>-95.53826726399998</v>
       </c>
       <c r="P98">
-        <v>-368.056817856</v>
+        <v>-338.7265839359999</v>
       </c>
       <c r="Q98">
-        <v>-330.856817856</v>
+        <v>-301.5265839359999</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.189273981503202</v>
+        <v>2.280841585210815</v>
       </c>
       <c r="T98">
-        <v>22.71194499920316</v>
+        <v>22.60298961541389</v>
       </c>
       <c r="U98">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V98">
-        <v>0.09767780547709942</v>
+        <v>0.1022063770577067</v>
       </c>
       <c r="W98">
-        <v>0.1323706659365095</v>
+        <v>0.1258706659365095</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.4439900248959064</v>
+        <v>0.4645744411713942</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2159557985591773</v>
+        <v>0.2133785027074818</v>
       </c>
       <c r="C99">
-        <v>-2783.297769438585</v>
+        <v>-2700.425080056078</v>
       </c>
       <c r="D99">
-        <v>2810.419230561414</v>
+        <v>2893.291919943921</v>
       </c>
       <c r="E99">
         <v>5422.116999999999</v>
@@ -9354,37 +9354,37 @@
         <v>376.8</v>
       </c>
       <c r="M99">
-        <v>857.5080038999998</v>
+        <v>819.5134433999998</v>
       </c>
       <c r="N99">
-        <v>-480.7080038999998</v>
+        <v>-442.7134433999998</v>
       </c>
       <c r="O99">
-        <v>-105.755760858</v>
+        <v>-97.39695754799996</v>
       </c>
       <c r="P99">
-        <v>-374.9522430419998</v>
+        <v>-345.3164858519998</v>
       </c>
       <c r="Q99">
-        <v>-337.7522430419999</v>
+        <v>-308.1164858519998</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.913765308670937</v>
+        <v>3.038022113614421</v>
       </c>
       <c r="T99">
-        <v>30.28259333227088</v>
+        <v>30.13731948721852</v>
       </c>
       <c r="U99">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V99">
-        <v>0.0966708177917685</v>
+        <v>0.1011527030674211</v>
       </c>
       <c r="W99">
-        <v>0.1325183910299476</v>
+        <v>0.1260183910299476</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.4394128081444023</v>
+        <v>0.4597850139428232</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2172647985591773</v>
+        <v>0.2146875027074818</v>
       </c>
       <c r="C100">
-        <v>-2861.819223865934</v>
+        <v>-2779.125951388467</v>
       </c>
       <c r="D100">
-        <v>2792.158776134065</v>
+        <v>2874.852048611533</v>
       </c>
       <c r="E100">
         <v>5482.378</v>
@@ -9436,37 +9436,37 @@
         <v>376.8</v>
       </c>
       <c r="M100">
-        <v>866.3482925999999</v>
+        <v>827.9620355999999</v>
       </c>
       <c r="N100">
-        <v>-489.5482925999999</v>
+        <v>-451.1620355999999</v>
       </c>
       <c r="O100">
-        <v>-107.700624372</v>
+        <v>-99.25564783199998</v>
       </c>
       <c r="P100">
-        <v>-381.8476682279999</v>
+        <v>-351.9063877679999</v>
       </c>
       <c r="Q100">
-        <v>-344.6476682279999</v>
+        <v>-314.706387768</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.362747963006404</v>
+        <v>4.55238317042163</v>
       </c>
       <c r="T100">
-        <v>45.42388999840632</v>
+        <v>45.20597923082779</v>
       </c>
       <c r="U100">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V100">
-        <v>0.09568438087552596</v>
+        <v>0.1001205326279576</v>
       </c>
       <c r="W100">
-        <v>0.1326631013255603</v>
+        <v>0.1261631013255603</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.4349290039796635</v>
+        <v>0.4550933301270801</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2185737985591773</v>
+        <v>0.2159965027074818</v>
       </c>
       <c r="C101">
-        <v>-2940.104918693026</v>
+        <v>-2857.593264907753</v>
       </c>
       <c r="D101">
-        <v>2774.134081306973</v>
+        <v>2856.645735092246</v>
       </c>
       <c r="E101">
         <v>5542.638999999999</v>
@@ -9518,37 +9518,37 @@
         <v>376.8</v>
       </c>
       <c r="M101">
-        <v>875.1885812999999</v>
+        <v>836.4106277999998</v>
       </c>
       <c r="N101">
-        <v>-498.3885812999999</v>
+        <v>-459.6106277999998</v>
       </c>
       <c r="O101">
-        <v>-109.645487886</v>
+        <v>-101.114338116</v>
       </c>
       <c r="P101">
-        <v>-388.7430934139999</v>
+        <v>-358.4962896839999</v>
       </c>
       <c r="Q101">
-        <v>-351.5430934139999</v>
+        <v>-321.2962896839999</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>8.709695926012811</v>
+        <v>9.095466340843261</v>
       </c>
       <c r="T101">
-        <v>90.84777999681266</v>
+        <v>90.41195846165557</v>
       </c>
       <c r="U101">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V101">
-        <v>0.09471787197779337</v>
+        <v>0.09910921411656413</v>
       </c>
       <c r="W101">
-        <v>0.1328048881808577</v>
+        <v>0.1263048881808577</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.4305357817172426</v>
+        <v>0.4504964278025642</v>
       </c>
       <c r="Z101">
         <v>0</v>
